--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -44,7 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 9:17 AM</t>
+    <t>CALCIUM D3F 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>Monday, 29 September, 2025 9:29 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +272,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +284,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,32 +692,46 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>16.829999999999998</v>
+      </c>
       <c r="Q8" s="13"/>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -707,13 +739,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c t="s" r="G9" s="15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
       <c t="s" r="K9" s="17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 9:29 AM</t>
+    <t>Monday, 29 September, 2025 9:32 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -62,7 +62,61 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 9:32 AM</t>
+    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>Monday, 29 September, 2025 9:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +778,203 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>16.829999999999998</v>
-      </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
         <v>17</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
         <v>18</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
         <v>19</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>21</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>21</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>32</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>33</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>425.82999999999998</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>35</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>36</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>37</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +988,35 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -116,7 +116,7 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 9:33 AM</t>
+    <t>Monday, 29 September, 2025 9:36 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -116,7 +116,25 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 9:36 AM</t>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Monday, 29 September, 2025 9:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -943,38 +961,71 @@
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>425.82999999999998</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>35</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>36</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
         <v>37</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>435.82999999999998</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>41</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>42</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>43</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1013,10 +1064,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -134,7 +134,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 9:55 AM</t>
+    <t>Monday, 29 September, 2025 10:11 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>OMEGA ZAD SYURP 100 ML</t>
   </si>
   <si>
@@ -120,9 +132,6 @@
   </si>
   <si>
     <t>17:0</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>5.00</t>
@@ -841,21 +850,21 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -867,14 +876,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -884,11 +893,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -900,7 +909,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -917,11 +926,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -933,14 +942,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -979,53 +988,86 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>39</v>
       </c>
-      <c t="s" r="Q13" s="12">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>435.82999999999998</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>23</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>41</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>42</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c t="s" r="Q14" s="12">
         <v>43</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>513.83000000000004</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>44</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>45</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>46</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1069,10 +1111,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -143,7 +143,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 10:11 AM</t>
+    <t>Monday, 29 September, 2025 10:56 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -44,24 +44,60 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AM GINKO TAB</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
     <t>CALCIUM D3F 30 TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
     <t>16.8300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -74,15 +110,9 @@
     <t>34.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -143,7 +173,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 10:56 AM</t>
+    <t>Monday, 29 September, 2025 11:10 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -823,18 +853,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -850,13 +880,13 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -867,7 +897,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -889,7 +919,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -900,7 +930,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -916,24 +946,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -942,14 +972,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -959,14 +989,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -975,20 +1005,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -999,7 +1029,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1015,59 +1045,158 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>42</v>
       </c>
-      <c t="s" r="Q14" s="12">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>19</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>513.83000000000004</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>45</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>46</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>19</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>50</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>51</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>671.24000000000001</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>56</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1116,10 +1245,25 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -173,7 +173,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 11:10 AM</t>
+    <t>Monday, 29 September, 2025 11:14 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -98,12 +110,39 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>CONVENTIN 100MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
     <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -113,12 +152,6 @@
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>OMEGA ZAD SYURP 100 ML</t>
   </si>
   <si>
@@ -146,6 +179,18 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -158,6 +203,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>شاش 5سم</t>
   </si>
   <si>
@@ -173,7 +230,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 11:14 AM</t>
+    <t>Monday, 29 September, 2025 11:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -897,7 +954,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -913,7 +970,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -923,11 +980,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -939,14 +996,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -963,7 +1020,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -985,7 +1042,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -996,7 +1053,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1012,24 +1069,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1038,7 +1095,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1055,14 +1112,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1071,14 +1128,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1088,11 +1145,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1104,28 +1161,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1137,66 +1194,264 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>19</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>51</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>52</v>
       </c>
-      <c t="s" r="Q17" s="12">
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>671.24000000000001</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>19</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>54</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>55</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>56</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>57</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>19</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>58</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>60</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>61</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>19</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>62</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>64</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>37</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>65</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>68</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>69</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>70</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>933.40999999999997</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>73</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>74</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>75</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1260,10 +1515,40 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -170,6 +170,24 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>SHAAN BODY MILK 300ML</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>SHAAN LIP BALM 5 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -230,7 +248,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 11:16 AM</t>
+    <t>Monday, 29 September, 2025 11:21 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1267,13 +1285,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1300,7 +1318,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1310,11 +1328,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1326,14 +1344,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1343,11 +1361,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1359,31 +1377,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1392,66 +1410,132 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>70</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>37</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>71</v>
       </c>
-      <c t="s" r="Q23" s="12">
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>933.40999999999997</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c t="s" r="Q24" s="12">
         <v>73</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>74</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
         <v>75</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>76</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1223.4100000000001</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>79</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>80</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>81</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1545,10 +1629,20 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -248,7 +248,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 11:21 AM</t>
+    <t>Monday, 29 September, 2025 11:23 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -44,6 +44,21 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>AM GINKO TAB</t>
   </si>
   <si>
@@ -59,18 +74,12 @@
     <t>99.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -119,6 +128,18 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
@@ -149,6 +170,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>KEFLEX 1GM 16 TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -233,6 +263,15 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>شاش 5سم</t>
   </si>
   <si>
@@ -248,7 +287,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 11:23 AM</t>
+    <t>Monday, 29 September, 2025 11:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -906,7 +945,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -915,31 +954,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -948,28 +987,28 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -981,31 +1020,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1014,20 +1053,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1038,7 +1077,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1054,13 +1093,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1071,7 +1110,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1087,7 +1126,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1097,14 +1136,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1113,31 +1152,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1146,28 +1185,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1179,28 +1218,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1219,13 +1258,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1252,13 +1291,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1269,7 +1308,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1285,7 +1324,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1318,24 +1357,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1344,31 +1383,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1377,31 +1416,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1410,31 +1449,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1443,14 +1482,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1460,14 +1499,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1476,14 +1515,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1493,49 +1532,214 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>72</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>73</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>74</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>76</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>77</v>
       </c>
-      <c t="s" r="Q25" s="12">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1223.4100000000001</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>79</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c t="s" r="Q27" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>80</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>44</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>18</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>81</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>84</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>44</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>18</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>85</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>87</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>88</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>18</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>89</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1336.1700000000001</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>92</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>93</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>94</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1639,10 +1843,35 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>جل صبار برطمان</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -287,7 +296,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 11:26 AM</t>
+    <t>Monday, 29 September, 2025 11:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1621,7 +1630,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1638,7 +1647,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1647,7 +1656,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1664,14 +1673,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1687,7 +1696,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1697,49 +1706,82 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>90</v>
       </c>
-      <c t="s" r="Q30" s="12">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1336.1700000000001</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>18</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>92</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>93</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c t="s" r="Q31" s="12">
         <v>94</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1361.1700000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>95</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>96</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>97</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1868,10 +1910,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -296,7 +296,16 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 11:42 AM</t>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>Monday, 29 September, 2025 11:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1750,38 +1759,71 @@
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1361.1700000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>95</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>96</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>18</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>97</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1381.1700000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>98</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>99</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>100</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1915,10 +1957,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN 100MG 30 CAP.</t>
   </si>
   <si>
@@ -233,12 +245,6 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -251,15 +257,21 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>جل صبار برطمان</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -293,9 +305,6 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -305,7 +314,7 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 11:43 AM</t>
+    <t>Monday, 29 September, 2025 11:53 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1144,7 +1153,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1154,14 +1163,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1170,14 +1179,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1187,11 +1196,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1203,14 +1212,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1236,28 +1245,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1276,21 +1285,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1302,14 +1311,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1319,14 +1328,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1335,14 +1344,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1352,14 +1361,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1368,7 +1377,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1381,18 +1390,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1401,28 +1410,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>17</v>
@@ -1434,14 +1443,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1451,11 +1460,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>17</v>
@@ -1467,28 +1476,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1500,28 +1509,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>17</v>
@@ -1533,14 +1542,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1550,11 +1559,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -1566,14 +1575,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1616,11 +1625,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -1632,28 +1641,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>17</v>
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1689,7 +1698,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1698,14 +1707,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1715,11 +1724,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1731,14 +1740,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1748,14 +1757,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1764,14 +1773,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1781,49 +1790,115 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1381.1700000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>94</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>95</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>18</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>96</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>98</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>99</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>18</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>100</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1437.1700000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>101</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>102</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>103</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1962,10 +2037,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>TELFAST 180MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -314,7 +323,7 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 11:53 AM</t>
+    <t>Monday, 29 September, 2025 11:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1599,7 +1608,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1615,7 +1624,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1625,11 +1634,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -1641,14 +1650,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1658,11 +1667,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>17</v>
@@ -1674,28 +1683,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -1707,14 +1716,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1724,11 +1733,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1740,14 +1749,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1757,14 +1766,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1773,7 +1782,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1790,14 +1799,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1813,7 +1822,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1823,14 +1832,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1839,14 +1848,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1856,49 +1865,82 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>101</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>102</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>18</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>103</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q34" s="12">
+      <c t="s" r="Q35" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1437.1700000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>101</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>102</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>103</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1517.1700000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>104</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>105</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>106</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2047,10 +2089,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -89,111 +89,114 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>78.00</t>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>CALCIUM D3F 30 TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 100MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>KEFLEX 1GM 16 TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
     <t>78.0000</t>
   </si>
   <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>CALCIUM D3F 30 TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN 100MG 30 CAP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>59.0000</t>
-  </si>
-  <si>
-    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>KEFLEX 1GM 16 TABS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
     <t>OMEGA ZAD SYURP 100 ML</t>
   </si>
   <si>
@@ -230,13 +233,13 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>TELFAST 180MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
   </si>
   <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
@@ -287,10 +290,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
+    <t>18.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -323,7 +323,7 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 11:56 AM</t>
+    <t>Monday, 29 September, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1063,7 +1063,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1073,14 +1073,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1436,11 +1436,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>17</v>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1469,11 +1469,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>17</v>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1535,11 +1535,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>17</v>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1568,11 +1568,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1601,11 +1601,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1634,11 +1634,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -1650,14 +1650,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1683,14 +1683,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1700,11 +1700,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -1716,14 +1716,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1733,11 +1733,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1766,11 +1766,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1799,14 +1799,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1872,7 +1872,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1910,7 +1910,7 @@
     </row>
     <row r="36" ht="25.5" customHeight="1">
       <c r="P36" s="13">
-        <v>1517.1700000000001</v>
+        <v>1531.6700000000001</v>
       </c>
       <c r="Q36" s="13"/>
     </row>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -242,6 +254,18 @@
     <t>49.5000</t>
   </si>
   <si>
+    <t>TEMPO COOL للرضع</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>25.28</t>
+  </si>
+  <si>
+    <t>12.6400</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -323,7 +347,7 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:04 PM</t>
+    <t>Monday, 29 September, 2025 12:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1195,7 +1219,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1205,14 +1229,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1221,14 +1245,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1238,11 +1262,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1254,14 +1278,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1287,28 +1311,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1327,21 +1351,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1353,14 +1377,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1370,14 +1394,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1386,14 +1410,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1403,14 +1427,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1419,7 +1443,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1432,18 +1456,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1452,28 +1476,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>17</v>
@@ -1485,14 +1509,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1502,11 +1526,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1518,28 +1542,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>17</v>
@@ -1551,28 +1575,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -1584,14 +1608,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1601,14 +1625,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1617,7 +1641,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1634,14 +1658,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1650,31 +1674,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1683,14 +1707,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1700,11 +1724,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -1716,28 +1740,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1756,21 +1780,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -1782,14 +1806,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1799,14 +1823,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1815,14 +1839,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1832,11 +1856,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>17</v>
@@ -1848,14 +1872,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1865,14 +1889,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1881,14 +1905,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1902,45 +1926,111 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1531.6700000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>104</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>105</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
         <v>106</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>18</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>107</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>109</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>110</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>18</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>111</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1567.31</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>112</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>113</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>114</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2094,10 +2184,20 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -347,7 +347,16 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:05 PM</t>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>Monday, 29 September, 2025 12:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1999,38 +2008,71 @@
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1567.31</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>112</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
         <v>113</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>18</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>114</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1577.31</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>115</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>116</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>117</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2194,10 +2236,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -182,7 +182,7 @@
     <t>118.00</t>
   </si>
   <si>
-    <t>59.0000</t>
+    <t>177.0000</t>
   </si>
   <si>
     <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
@@ -227,6 +227,18 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>SHAAN BODY MILK 300ML</t>
   </si>
   <si>
@@ -275,6 +287,9 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>UNIPRIDOL 5MG/5ML SYP. 100 ML</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -314,7 +329,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -323,7 +338,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>شاش 5سم</t>
@@ -350,13 +365,22 @@
     <t>قطن ازن صغير</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:06 PM</t>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Monday, 29 September, 2025 12:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1393,7 +1417,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1410,7 +1434,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1591,21 +1615,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -1617,7 +1641,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1630,15 +1654,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>17</v>
@@ -1650,14 +1674,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1667,14 +1691,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1683,20 +1707,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1723,24 +1747,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1749,14 +1773,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1766,11 +1790,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1782,14 +1806,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1799,11 +1823,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -1815,28 +1839,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>17</v>
@@ -1848,28 +1872,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>17</v>
@@ -1888,7 +1912,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1898,14 +1922,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>91</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1914,14 +1938,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1931,11 +1955,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>17</v>
@@ -1947,14 +1971,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1964,14 +1988,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1980,14 +2004,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1997,14 +2021,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2013,14 +2037,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2030,49 +2054,148 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1577.31</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>114</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>115</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>18</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>116</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>117</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>106</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>18</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>118</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>119</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>120</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>18</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>121</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1794.31</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>123</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>124</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>125</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2241,10 +2364,25 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -380,7 +380,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:09 PM</t>
+    <t>Monday, 29 September, 2025 12:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -239,6 +248,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>SHAAN BODY MILK 300ML</t>
   </si>
   <si>
@@ -380,7 +395,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:11 PM</t>
+    <t>Monday, 29 September, 2025 12:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1516,24 +1531,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1542,24 +1557,24 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1582,7 +1597,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1615,7 +1630,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1625,11 +1640,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -1641,20 +1656,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1681,7 +1696,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1695,10 +1710,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1707,31 +1722,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1740,31 +1755,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1773,7 +1788,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1790,14 +1805,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1806,31 +1821,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1839,14 +1854,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1856,11 +1871,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>17</v>
@@ -1872,14 +1887,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1889,11 +1904,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>17</v>
@@ -1905,28 +1920,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>17</v>
@@ -1938,28 +1953,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>17</v>
@@ -1978,7 +1993,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1988,14 +2003,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2004,14 +2019,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2021,14 +2036,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2037,14 +2052,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2054,14 +2069,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2070,14 +2085,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2087,14 +2102,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2103,14 +2118,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2120,14 +2135,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2157,45 +2172,111 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>122</v>
       </c>
-      <c t="s" r="Q41" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1794.31</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>111</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>18</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>123</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>124</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
         <v>125</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>18</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>126</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1839.31</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>128</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>129</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>130</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2379,10 +2460,20 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -47,301 +47,301 @@
     <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
   </si>
   <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>AM GINKO TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>40.00</t>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>CALCIUM D3F 30 TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 100MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
+    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>KEFLEX 1GM 16 TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>SHAAN BODY MILK 300ML</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>SHAAN LIP BALM 5 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>TEMPO COOL للرضع</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>25.28</t>
+  </si>
+  <si>
+    <t>12.6400</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>UNIPRIDOL 5MG/5ML SYP. 100 ML</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>املاح افونا</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>جل صبار برطمان</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
   </si>
   <si>
     <t>20.0000</t>
-  </si>
-  <si>
-    <t>AM GINKO TAB</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>CALCIUM D3F 30 TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN 100MG 30 CAP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>177.0000</t>
-  </si>
-  <si>
-    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>KEFLEX 1GM 16 TABS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>SHAAN BODY MILK 300ML</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>SHAAN LIP BALM 5 GM</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>TELFAST 120MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>TEMPO COOL للرضع</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>25.28</t>
-  </si>
-  <si>
-    <t>12.6400</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>UNIPRIDOL 5MG/5ML SYP. 100 ML</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>املاح افونا</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>جل صبار برطمان</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
   </si>
   <si>
     <t>10:0</t>
@@ -1053,7 +1053,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1062,14 +1062,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1086,7 +1086,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1095,14 +1095,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1112,14 +1112,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1128,14 +1128,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1145,14 +1145,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1161,14 +1161,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1178,14 +1178,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1194,14 +1194,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1211,14 +1211,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1227,14 +1227,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1244,14 +1244,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1260,14 +1260,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1277,14 +1277,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1293,14 +1293,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1310,14 +1310,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1326,14 +1326,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1343,14 +1343,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1359,14 +1359,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1376,14 +1376,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1392,14 +1392,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1416,7 +1416,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1432,7 +1432,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1449,7 +1449,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1465,7 +1465,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1482,7 +1482,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1512,10 +1512,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1524,14 +1524,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1541,14 +1541,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1557,14 +1557,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1574,14 +1574,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1590,14 +1590,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1607,14 +1607,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1623,14 +1623,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1640,14 +1640,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1656,14 +1656,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1673,14 +1673,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1689,14 +1689,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1706,14 +1706,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1722,14 +1722,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1739,14 +1739,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1755,14 +1755,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1772,14 +1772,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1788,14 +1788,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1805,14 +1805,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1821,14 +1821,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1838,14 +1838,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1854,14 +1854,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1871,14 +1871,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1887,14 +1887,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1911,7 +1911,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,14 +1920,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1937,14 +1937,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,14 +1953,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1970,14 +1970,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1986,14 +1986,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2003,14 +2003,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2019,14 +2019,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2036,14 +2036,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2052,14 +2052,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2069,11 +2069,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>111</v>
@@ -2092,7 +2092,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2109,7 +2109,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2142,7 +2142,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2172,10 +2172,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2208,7 +2208,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2241,12 +2241,12 @@
         <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
       <c r="P44" s="13">
-        <v>1839.31</v>
+        <v>1753.31</v>
       </c>
       <c r="Q44" s="13"/>
     </row>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -146,6 +146,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN 100MG 30 CAP.</t>
   </si>
   <si>
@@ -167,6 +179,30 @@
     <t>5:2</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
@@ -176,6 +212,18 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>FULPRAZAL 40 MG 14 CAPS.</t>
   </si>
   <si>
@@ -209,6 +257,12 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
@@ -236,9 +290,6 @@
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -314,12 +365,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>املاح افونا</t>
   </si>
   <si>
@@ -395,7 +440,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:15 PM</t>
+    <t>Monday, 29 September, 2025 12:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1300,24 +1345,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1326,14 +1371,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1343,11 +1388,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1359,14 +1404,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1392,28 +1437,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1425,14 +1470,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1442,14 +1487,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1458,14 +1503,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1475,11 +1520,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1491,31 +1536,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1524,14 +1569,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1541,11 +1586,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1557,31 +1602,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1590,7 +1635,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1607,11 +1652,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1623,7 +1668,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1640,14 +1685,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1656,14 +1701,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1673,14 +1718,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1689,14 +1734,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1706,14 +1751,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1722,14 +1767,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1739,11 +1784,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1755,7 +1800,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1772,11 +1817,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1788,7 +1833,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1805,14 +1850,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1821,31 +1866,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1854,14 +1899,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1871,14 +1916,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1887,7 +1932,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1900,15 +1945,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1920,14 +1965,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1937,11 +1982,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1953,14 +1998,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1970,14 +2015,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1986,14 +2031,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2003,14 +2048,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2019,7 +2064,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2032,15 +2077,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2052,7 +2097,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2065,18 +2110,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2085,31 +2130,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2118,31 +2163,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2151,14 +2196,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2168,11 +2213,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2191,7 +2236,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2201,11 +2246,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2217,14 +2262,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2234,49 +2279,214 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>127</v>
       </c>
-      <c t="s" r="Q43" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1753.31</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>16</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>18</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>128</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>129</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c t="s" r="Q44" s="12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>130</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>131</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>18</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>132</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>134</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>135</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>18</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>136</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>137</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>126</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>18</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>138</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>139</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>140</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>18</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>141</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1863.1500000000001</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>143</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>144</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>145</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2470,10 +2680,35 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -440,7 +440,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:17 PM</t>
+    <t>Monday, 29 September, 2025 12:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -299,9 +299,18 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>SHAAN BODY MILK 300ML</t>
   </si>
   <si>
@@ -440,7 +449,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:20 PM</t>
+    <t>Monday, 29 September, 2025 12:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1906,7 +1915,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1916,14 +1925,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1932,7 +1941,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1949,11 +1958,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1965,7 +1974,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1982,11 +1991,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1998,7 +2007,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2015,11 +2024,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2031,14 +2040,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2048,11 +2057,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2064,7 +2073,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2081,11 +2090,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2097,7 +2106,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2130,14 +2139,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2163,14 +2172,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2196,14 +2205,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2213,11 +2222,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2229,7 +2238,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2246,11 +2255,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2262,7 +2271,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2279,14 +2288,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2295,7 +2304,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2312,14 +2321,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2328,14 +2337,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2345,14 +2354,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2361,14 +2370,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2378,11 +2387,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2394,14 +2403,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2411,11 +2420,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2427,14 +2436,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2444,11 +2453,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2456,13 +2465,13 @@
     </row>
     <row r="49" ht="25.5" customHeight="1">
       <c r="P49" s="13">
-        <v>1863.1500000000001</v>
+        <v>1886.1500000000001</v>
       </c>
       <c r="Q49" s="13"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c t="s" r="A50" s="14">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -2470,13 +2479,13 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c t="s" r="G50" s="15">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="16"/>
       <c t="s" r="K50" s="17">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:36 PM</t>
+    <t>Monday, 29 September, 2025 12:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -329,6 +329,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>TELFAST 120MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -449,7 +458,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:37 PM</t>
+    <t>Monday, 29 September, 2025 12:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2014,7 +2023,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2047,21 +2056,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2073,20 +2082,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2097,7 +2106,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2113,7 +2122,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2123,11 +2132,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2156,11 +2165,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2189,11 +2198,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2205,28 +2214,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2255,11 +2264,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2271,14 +2280,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2288,14 +2297,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2304,7 +2313,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2321,14 +2330,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>132</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>122</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2344,7 +2353,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2354,14 +2363,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2387,14 +2396,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2410,7 +2419,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2420,11 +2429,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2457,45 +2466,78 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>145</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1886.1500000000001</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>146</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>18</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>147</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>148</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1917.8299999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>149</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>150</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>151</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2714,10 +2756,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -191,198 +191,195 @@
     <t>15.8400</t>
   </si>
   <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
+    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>KEFLEX 1GM 16 TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>SHAAN BODY MILK 300ML</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>SHAAN LIP BALM 5 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>TEMPO COOL للرضع</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>25.28</t>
+  </si>
+  <si>
+    <t>12.6400</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>UNIPRIDOL 5MG/5ML SYP. 100 ML</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>26.00</t>
   </si>
   <si>
     <t>26.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLUREST N 20 TABS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>177.0000</t>
-  </si>
-  <si>
-    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>KEFLEX 1GM 16 TABS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>SHAAN BODY MILK 300ML</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>SHAAN LIP BALM 5 GM</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>TELFAST 120MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>TEMPO COOL للرضع</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>25.28</t>
-  </si>
-  <si>
-    <t>12.6400</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>UNIPRIDOL 5MG/5ML SYP. 100 ML</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>املاح افونا</t>
   </si>
   <si>
@@ -458,7 +455,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:39 PM</t>
+    <t>Monday, 29 September, 2025 12:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1528,24 +1525,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1554,20 +1551,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1594,7 +1591,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1604,14 +1601,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1620,7 +1617,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1637,14 +1634,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1653,14 +1650,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1670,14 +1667,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1686,7 +1683,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1703,14 +1700,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1719,14 +1716,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1736,14 +1733,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1752,28 +1749,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1785,24 +1782,24 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1825,7 +1822,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1858,7 +1855,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1891,7 +1888,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1901,14 +1898,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1917,31 +1914,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1963,7 +1960,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1990,7 +1987,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2007,7 +2004,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2023,7 +2020,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2056,21 +2053,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2082,20 +2079,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2106,7 +2103,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2122,7 +2119,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2132,11 +2129,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2148,14 +2145,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2165,11 +2162,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2181,14 +2178,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2198,11 +2195,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2214,28 +2211,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2247,14 +2244,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2264,11 +2261,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2287,7 +2284,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2297,14 +2294,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2313,7 +2310,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2330,14 +2327,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2346,14 +2343,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2363,14 +2360,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2379,14 +2376,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2396,14 +2393,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2412,14 +2409,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2429,11 +2426,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2445,14 +2442,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2462,82 +2459,49 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="A49" s="7">
-        <v>43</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c t="s" r="C49" s="8">
-        <v>145</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c t="s" r="H49" s="9">
-        <v>146</v>
-      </c>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c t="s" r="L49" s="10">
-        <v>18</v>
-      </c>
-      <c r="M49" s="10"/>
-      <c t="s" r="N49" s="8">
-        <v>147</v>
-      </c>
-      <c r="O49" s="8"/>
-      <c t="s" r="P49" s="11">
+      <c r="P49" s="13">
+        <v>1891.8299999999999</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
         <v>148</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1917.8299999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
         <v>149</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
         <v>150</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
-        <v>151</v>
-      </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2756,15 +2720,10 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -380,6 +380,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ZINCTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>املاح افونا</t>
   </si>
   <si>
@@ -455,7 +464,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:42 PM</t>
+    <t>Monday, 29 September, 2025 12:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2218,24 +2227,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2261,11 +2270,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2294,14 +2303,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2310,7 +2319,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2327,14 +2336,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>134</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>124</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2350,7 +2359,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2360,14 +2369,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2393,14 +2402,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2416,7 +2425,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2426,11 +2435,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2442,14 +2451,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2463,45 +2472,78 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>147</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1891.8299999999999</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>148</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>18</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>149</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>150</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1933.4100000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>151</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>152</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>153</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2720,10 +2762,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -368,6 +368,15 @@
     <t>14:0</t>
   </si>
   <si>
+    <t>VENTAJ CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -464,7 +473,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:56 PM</t>
+    <t>Monday, 29 September, 2025 12:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2194,7 +2203,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2204,11 +2213,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2220,14 +2229,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2244,7 +2253,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2260,24 +2269,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2303,11 +2312,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2319,14 +2328,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2336,14 +2345,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2352,7 +2361,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2369,14 +2378,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>127</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2392,7 +2401,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2402,14 +2411,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2418,14 +2427,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2435,14 +2444,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2458,7 +2467,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2468,11 +2477,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2484,14 +2493,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2505,45 +2514,78 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>150</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1933.4100000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
         <v>151</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>18</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>152</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>153</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2043.4100000000001</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>154</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>155</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>156</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2767,10 +2809,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -473,7 +473,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:57 PM</t>
+    <t>Monday, 29 September, 2025 12:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -473,7 +473,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 12:58 PM</t>
+    <t>Monday, 29 September, 2025 1:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -473,7 +473,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 1:26 PM</t>
+    <t>Monday, 29 September, 2025 1:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -389,6 +389,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
@@ -419,45 +428,45 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>قطن ازن صغير</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -473,7 +482,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 1:36 PM</t>
+    <t>Monday, 29 September, 2025 2:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2269,7 +2278,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2302,24 +2311,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2328,14 +2337,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2345,11 +2354,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2361,14 +2370,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2378,14 +2387,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>137</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2394,7 +2403,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2411,14 +2420,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2427,14 +2436,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2444,14 +2453,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2477,14 +2486,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2493,14 +2502,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2510,11 +2519,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2547,45 +2556,78 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>153</v>
       </c>
-      <c t="s" r="Q50" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2043.4100000000001</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>154</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>18</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>155</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2061.73</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>157</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>158</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>159</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2814,10 +2856,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -482,7 +482,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 2:06 PM</t>
+    <t>Monday, 29 September, 2025 2:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -230,6 +230,18 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>KEFLEX 1GM 16 TABS.</t>
   </si>
   <si>
@@ -408,9 +420,6 @@
   </si>
   <si>
     <t>املاح افونا</t>
-  </si>
-  <si>
-    <t>2:0</t>
   </si>
   <si>
     <t>25.00</t>
@@ -1684,7 +1693,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1694,14 +1703,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1710,7 +1719,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1727,14 +1736,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1743,14 +1752,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1760,14 +1769,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1776,28 +1785,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1809,28 +1818,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1842,14 +1851,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1859,11 +1868,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1875,14 +1884,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1892,11 +1901,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1908,14 +1917,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1932,7 +1941,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1941,20 +1950,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1965,7 +1974,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1974,7 +1983,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1987,15 +1996,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2007,14 +2016,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2040,14 +2049,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2057,11 +2066,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2073,20 +2082,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2113,24 +2122,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2156,11 +2165,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2189,11 +2198,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2205,14 +2214,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2222,11 +2231,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2278,7 +2287,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2288,14 +2297,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2304,14 +2313,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2321,11 +2330,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2337,20 +2346,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2361,7 +2370,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2377,7 +2386,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2387,11 +2396,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2420,14 +2429,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2436,7 +2445,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>133</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2476,7 +2485,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2486,14 +2495,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>133</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2502,14 +2511,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2519,14 +2528,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2552,11 +2561,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2589,45 +2598,78 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>156</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2061.73</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
         <v>157</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>18</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>158</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>159</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2148.23</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>160</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>161</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>162</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2861,10 +2903,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -491,7 +491,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 2:22 PM</t>
+    <t>Monday, 29 September, 2025 3:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -428,6 +428,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>بامبرز رقم 2</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>330.0000</t>
+  </si>
+  <si>
     <t>جل صبار برطمان</t>
   </si>
   <si>
@@ -479,6 +488,9 @@
     <t>10.00</t>
   </si>
   <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
@@ -491,7 +503,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 3:37 PM</t>
+    <t>Monday, 29 September, 2025 3:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2429,11 +2441,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2445,14 +2457,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2462,14 +2474,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2478,7 +2490,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2495,14 +2507,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2518,7 +2530,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2528,11 +2540,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>74</v>
@@ -2544,14 +2556,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2561,14 +2573,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2577,14 +2589,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2594,11 +2606,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2631,45 +2643,111 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>159</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2148.23</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>16</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>18</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>158</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>160</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>161</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>18</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>162</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2488.23</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>164</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>165</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>166</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2908,10 +2986,20 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -503,7 +503,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 3:47 PM</t>
+    <t>Monday, 29 September, 2025 4:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -314,6 +314,12 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
     <t>SHAAN BODY MILK 300ML</t>
   </si>
   <si>
@@ -425,21 +431,24 @@
     <t>25.00</t>
   </si>
   <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>بامبرز رقم 2</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>330.0000</t>
+  </si>
+  <si>
+    <t>جل صبار برطمان</t>
+  </si>
+  <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>بامبرز رقم 2</t>
-  </si>
-  <si>
-    <t>330.00</t>
-  </si>
-  <si>
-    <t>330.0000</t>
-  </si>
-  <si>
-    <t>جل صبار برطمان</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -470,15 +479,12 @@
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
-    <t>23:0</t>
+    <t>22:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>قطن ازن صغير</t>
   </si>
   <si>
@@ -503,7 +509,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 4:03 PM</t>
+    <t>Monday, 29 September, 2025 4:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2002,24 +2008,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2028,7 +2034,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2041,15 +2047,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2061,14 +2067,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2078,14 +2084,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2094,14 +2100,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2111,11 +2117,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2127,28 +2133,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2160,31 +2166,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2193,14 +2199,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2210,11 +2216,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2226,14 +2232,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2243,11 +2249,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2266,7 +2272,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2276,11 +2282,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2292,14 +2298,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2309,11 +2315,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2325,14 +2331,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2342,14 +2348,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2358,14 +2364,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2375,11 +2381,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2391,31 +2397,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2424,7 +2430,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2441,14 +2447,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2457,7 +2463,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2474,11 +2480,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2490,14 +2496,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2507,14 +2513,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2523,7 +2529,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2540,14 +2546,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2563,7 +2569,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2573,11 +2579,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>74</v>
@@ -2589,14 +2595,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2606,14 +2612,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2622,14 +2628,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2639,14 +2645,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2655,14 +2661,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2672,11 +2678,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2688,14 +2694,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2705,49 +2711,82 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>162</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
         <v>163</v>
       </c>
-      <c t="s" r="Q54" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2488.23</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>18</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>164</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>165</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2547.3299999999999</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
         <v>166</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>167</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>168</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2996,10 +3035,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -509,7 +509,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 4:06 PM</t>
+    <t>Monday, 29 September, 2025 4:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -125,13 +125,16 @@
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>5:0</t>
+    <t>4:0</t>
   </si>
   <si>
     <t>23.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
@@ -167,6 +170,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>COVERSYL 5MG 15 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -233,9 +245,6 @@
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>173.00</t>
   </si>
   <si>
@@ -260,9 +269,6 @@
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -308,9 +314,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
     <t>0:2</t>
   </si>
   <si>
@@ -416,6 +419,15 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
@@ -425,12 +437,21 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>املاح افونا</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -446,9 +467,6 @@
     <t>جل صبار برطمان</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -488,12 +506,12 @@
     <t>قطن ازن صغير</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -509,7 +527,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 4:39 PM</t>
+    <t>Monday, 29 September, 2025 4:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1365,7 +1383,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1374,14 +1392,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1391,11 +1409,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1407,14 +1425,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1424,11 +1442,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1440,7 +1458,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1457,11 +1475,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1473,14 +1491,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1490,14 +1508,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1539,14 +1557,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1556,11 +1574,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1579,21 +1597,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1605,20 +1623,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1645,7 +1663,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1655,14 +1673,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1671,7 +1689,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1688,14 +1706,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1704,14 +1722,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1728,7 +1746,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1744,7 +1762,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1758,10 +1776,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1770,7 +1788,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1787,14 +1805,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1810,7 +1828,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1820,14 +1838,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1843,17 +1861,17 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1876,21 +1894,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1919,11 +1937,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1935,14 +1953,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1952,11 +1970,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1985,14 +2003,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2001,14 +2019,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2018,14 +2036,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2034,31 +2052,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2067,7 +2085,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2080,15 +2098,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2133,14 +2151,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2150,11 +2168,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2166,28 +2184,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2199,31 +2217,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2232,14 +2250,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,11 +2267,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2272,7 +2290,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2282,11 +2300,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2298,14 +2316,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2315,11 +2333,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2331,14 +2349,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2348,11 +2366,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2364,14 +2382,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2381,14 +2399,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2397,14 +2415,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,11 +2432,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2430,31 +2448,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2463,31 +2481,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2496,14 +2514,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,7 +2531,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2536,7 +2554,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2546,14 +2564,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2569,7 +2587,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2586,7 +2604,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2602,7 +2620,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2612,14 +2630,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2645,14 +2663,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2661,14 +2679,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2678,14 +2696,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2694,14 +2712,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2711,14 +2729,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2727,14 +2745,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2744,49 +2762,148 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>164</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>130</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>18</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>165</v>
       </c>
-      <c t="s" r="Q55" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2547.3299999999999</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>166</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c t="s" r="Q56" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>167</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>16</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>18</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>165</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>168</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>169</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>18</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>170</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2750.3299999999999</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>172</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>173</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>174</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3040,10 +3157,25 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -527,7 +527,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 4:57 PM</t>
+    <t>Monday, 29 September, 2025 4:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -308,21 +308,27 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>92.00</t>
+    <t>14.1000</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
     <t>SHAAN BODY MILK 300ML</t>
   </si>
   <si>
@@ -527,7 +533,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 4:58 PM</t>
+    <t>Monday, 29 September, 2025 5:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2026,7 +2032,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2036,11 +2042,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>101</v>
@@ -2059,7 +2065,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2073,10 +2079,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2085,7 +2091,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2102,11 +2108,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2118,7 +2124,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2135,11 +2141,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2151,14 +2157,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2168,11 +2174,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2184,7 +2190,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2201,11 +2207,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2217,14 +2223,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2234,11 +2240,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2250,7 +2256,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2267,11 +2273,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2283,7 +2289,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2316,14 +2322,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2349,7 +2355,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2366,11 +2372,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2382,14 +2388,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2399,11 +2405,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2415,7 +2421,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2432,11 +2438,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2448,7 +2454,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2465,11 +2471,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2481,7 +2487,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2498,11 +2504,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2514,14 +2520,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2531,11 +2537,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2547,7 +2553,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2564,11 +2570,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>41</v>
@@ -2580,7 +2586,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2597,11 +2603,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2613,7 +2619,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2630,11 +2636,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2646,7 +2652,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2663,7 +2669,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2679,7 +2685,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2696,11 +2702,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>41</v>
@@ -2712,14 +2718,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2729,11 +2735,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>41</v>
@@ -2745,14 +2751,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2762,7 +2768,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2778,14 +2784,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2795,11 +2801,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>41</v>
@@ -2811,7 +2817,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2828,11 +2834,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2844,14 +2850,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2861,11 +2867,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2873,13 +2879,13 @@
     </row>
     <row r="59" ht="25.5" customHeight="1">
       <c r="P59" s="13">
-        <v>2750.3299999999999</v>
+        <v>2773.3299999999999</v>
       </c>
       <c r="Q59" s="13"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c t="s" r="A60" s="14">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -2887,13 +2893,13 @@
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c t="s" r="G60" s="15">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="16"/>
       <c t="s" r="K60" s="17">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -92,6 +92,9 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -134,7 +137,16 @@
     <t>46.0000</t>
   </si>
   <si>
-    <t>2:0</t>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
   </si>
   <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
@@ -182,7 +194,7 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>7:2</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -242,6 +254,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>HELARIUM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -281,10 +302,10 @@
     <t>OMEGA ZAD SYURP 100 ML</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
   </si>
   <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
@@ -380,12 +401,6 @@
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
     <t>UNIPRIDOL 5MG/5ML SYP. 100 ML</t>
   </si>
   <si>
@@ -407,9 +422,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -458,9 +470,6 @@
     <t>املاح افونا</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>بامبرز رقم 2</t>
   </si>
   <si>
@@ -521,6 +530,9 @@
     <t>قياس سكر</t>
   </si>
   <si>
+    <t xml:space="preserve">لونا سوفت 50مل </t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
@@ -533,7 +545,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 5:10 PM</t>
+    <t>Monday, 29 September, 2025 5:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1273,7 +1285,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1283,14 +1295,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1299,14 +1311,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1316,11 +1328,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1332,7 +1344,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1349,11 +1361,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1365,14 +1377,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1382,14 +1394,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1444,7 +1456,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1471,24 +1483,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1497,14 +1509,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1514,14 +1526,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1530,14 +1542,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1547,14 +1559,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1563,14 +1575,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1596,14 +1608,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1613,11 +1625,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1636,21 +1648,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1662,20 +1674,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1702,7 +1714,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1712,14 +1724,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1728,7 +1740,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1745,14 +1757,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1761,14 +1773,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1778,14 +1790,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1794,7 +1806,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1811,14 +1823,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1827,14 +1839,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1844,11 +1856,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1877,14 +1889,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1893,31 +1905,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1926,14 +1938,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1943,11 +1955,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1959,28 +1971,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1992,14 +2004,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2009,11 +2021,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2025,14 +2037,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2042,14 +2054,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2065,7 +2077,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2075,14 +2087,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2091,31 +2103,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2131,7 +2143,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2141,14 +2153,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2157,31 +2169,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2190,7 +2202,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2207,14 +2219,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2223,20 +2235,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2280,7 +2292,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2296,24 +2308,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2322,14 +2334,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2339,11 +2351,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2355,7 +2367,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2372,11 +2384,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2405,11 +2417,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2421,14 +2433,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2438,14 +2450,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2454,14 +2466,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2471,11 +2483,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2487,14 +2499,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2504,11 +2516,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2520,28 +2532,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2553,20 +2565,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2574,10 +2586,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2586,14 +2598,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2603,11 +2615,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2619,7 +2631,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2636,14 +2648,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2652,14 +2664,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2669,14 +2681,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2692,7 +2704,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2718,14 +2730,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2735,14 +2747,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2751,14 +2763,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2768,14 +2780,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2801,14 +2813,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2817,14 +2829,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2834,14 +2846,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2850,14 +2862,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2867,49 +2879,148 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>172</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>16</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>18</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>170</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>173</v>
       </c>
-      <c t="s" r="Q58" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2773.3299999999999</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>39</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>18</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>150</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>174</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
         <v>175</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>18</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>176</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2841.3299999999999</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>178</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>179</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>180</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3178,10 +3289,25 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -197,6 +197,18 @@
     <t>7:2</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -227,9 +239,6 @@
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>32.00</t>
   </si>
   <si>
@@ -245,6 +254,9 @@
     <t>177.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
     <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -281,9 +293,6 @@
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>22.0000</t>
   </si>
   <si>
@@ -479,6 +488,12 @@
     <t>330.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
     <t>جل صبار برطمان</t>
   </si>
   <si>
@@ -497,6 +512,12 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>شاش 5سم</t>
   </si>
   <si>
@@ -536,16 +557,13 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 5:55 PM</t>
+    <t>Monday, 29 September, 2025 5:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1625,14 +1643,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1641,14 +1659,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1658,11 +1676,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1681,21 +1699,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1707,20 +1725,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1747,7 +1765,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1764,7 +1782,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1797,7 +1815,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1813,7 +1831,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1823,11 +1841,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1839,14 +1857,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1856,14 +1874,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1872,7 +1890,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1889,14 +1907,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1922,11 +1940,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1938,14 +1956,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1955,14 +1973,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1971,31 +1989,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2004,14 +2022,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2021,11 +2039,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2037,28 +2055,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2070,14 +2088,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2087,11 +2105,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2103,14 +2121,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2120,14 +2138,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2136,14 +2154,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2153,14 +2171,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2169,31 +2187,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2202,14 +2220,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2219,14 +2237,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2235,31 +2253,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2268,7 +2286,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2285,14 +2303,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2301,28 +2319,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2334,7 +2352,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2351,14 +2369,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2367,31 +2385,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2400,14 +2418,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2417,11 +2435,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2440,7 +2458,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2450,11 +2468,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2466,14 +2484,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2483,11 +2501,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2499,14 +2517,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2516,14 +2534,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2532,14 +2550,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2549,11 +2567,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2565,14 +2583,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2582,11 +2600,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2598,28 +2616,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2631,31 +2649,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2681,11 +2699,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2697,7 +2715,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2714,14 +2732,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2747,14 +2765,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2770,7 +2788,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2780,14 +2798,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2796,14 +2814,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2813,14 +2831,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2846,14 +2864,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2862,14 +2880,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2879,11 +2897,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>27</v>
@@ -2895,14 +2913,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2912,11 +2930,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2928,14 +2946,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2945,14 +2963,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2961,14 +2979,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2978,49 +2996,181 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>176</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>43</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>18</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>177</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2841.3299999999999</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>178</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c t="s" r="Q62" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>179</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>16</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>18</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>177</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>180</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>39</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>18</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>153</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>181</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>168</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>18</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>182</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3001.3299999999999</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>184</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>185</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>186</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3304,10 +3454,30 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
@@ -302,12 +311,36 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
     <t>78.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>OMEGA ZAD SYURP 100 ML</t>
   </si>
   <si>
@@ -344,9 +377,6 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -431,12 +461,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -449,9 +473,6 @@
     <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
     <t>66.0000</t>
   </si>
   <si>
@@ -563,7 +584,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 5:56 PM</t>
+    <t>Monday, 29 September, 2025 6:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1732,13 +1753,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1749,7 +1770,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1765,13 +1786,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1798,7 +1819,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1815,7 +1836,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1831,7 +1852,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1841,14 +1862,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1857,14 +1878,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1874,11 +1895,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1897,7 +1918,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1930,7 +1951,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1947,7 +1968,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1963,7 +1984,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1977,10 +1998,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1989,7 +2010,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2006,14 +2027,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2022,14 +2043,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2039,14 +2060,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2055,28 +2076,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2105,11 +2126,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2121,28 +2142,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2154,14 +2175,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2171,14 +2192,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2187,14 +2208,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2204,14 +2225,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2220,14 +2241,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2237,14 +2258,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2260,13 +2281,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2293,7 +2314,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2310,7 +2331,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2326,7 +2347,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2336,14 +2357,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2352,7 +2373,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2365,18 +2386,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2385,20 +2406,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2409,7 +2430,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2425,7 +2446,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2435,14 +2456,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2451,14 +2472,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2468,14 +2489,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2484,31 +2505,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2517,14 +2538,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2534,11 +2555,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2550,14 +2571,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2567,11 +2588,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2583,14 +2604,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2600,14 +2621,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2616,14 +2637,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2633,11 +2654,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2649,14 +2670,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2666,14 +2687,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2682,31 +2703,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2715,31 +2736,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2748,31 +2769,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2781,14 +2802,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2798,11 +2819,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2814,7 +2835,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2831,14 +2852,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2847,14 +2868,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2864,14 +2885,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2880,14 +2901,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2897,14 +2918,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2913,14 +2934,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2930,11 +2951,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2953,7 +2974,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2963,14 +2984,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2979,14 +3000,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2996,11 +3017,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
@@ -3012,14 +3033,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3029,14 +3050,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3045,14 +3066,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3062,14 +3083,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3085,7 +3106,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3095,14 +3116,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3111,14 +3132,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3128,49 +3149,148 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3001.3299999999999</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>186</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>16</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>18</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>184</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>185</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>186</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>187</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>39</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>18</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>160</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>188</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>175</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>18</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>189</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3099.3299999999999</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>191</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>192</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>193</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3474,10 +3594,25 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -584,7 +584,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 6:30 PM</t>
+    <t>Monday, 29 September, 2025 6:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -227,6 +227,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -266,6 +278,15 @@
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -386,9 +407,6 @@
     <t>14.1000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>SHAAN BODY MILK 300ML</t>
   </si>
   <si>
@@ -578,13 +596,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>Monday, 29 September, 2025 6:31 PM</t>
+    <t>Monday, 29 September, 2025 6:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,7 +1765,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1763,11 +1775,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1779,31 +1791,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1812,28 +1824,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1845,14 +1857,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1862,14 +1874,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1878,14 +1890,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1895,14 +1907,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1911,14 +1923,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1928,11 +1940,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1944,14 +1956,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1961,11 +1973,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1977,14 +1989,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1994,14 +2006,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2010,7 +2022,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2027,14 +2039,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2043,14 +2055,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2060,11 +2072,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2076,14 +2088,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2093,14 +2105,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2109,14 +2121,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2126,14 +2138,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2142,28 +2154,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2175,14 +2187,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2192,14 +2204,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2208,24 +2220,24 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2248,7 +2260,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2265,7 +2277,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2274,14 +2286,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2291,11 +2303,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2307,14 +2319,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2324,14 +2336,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2340,14 +2352,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2357,14 +2369,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2380,13 +2392,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2397,7 +2409,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2413,7 +2425,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2423,14 +2435,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2446,13 +2458,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2463,7 +2475,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2496,7 +2508,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2512,21 +2524,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2538,7 +2550,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2555,14 +2567,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2571,31 +2583,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2604,14 +2616,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2621,11 +2633,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2637,14 +2649,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2654,11 +2666,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2670,14 +2682,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2687,11 +2699,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2703,14 +2715,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2720,14 +2732,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2736,14 +2748,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2753,11 +2765,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2769,14 +2781,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2786,11 +2798,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2802,28 +2814,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2835,31 +2847,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2868,14 +2880,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2885,11 +2897,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2901,14 +2913,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2918,14 +2930,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2934,7 +2946,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2951,11 +2963,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2967,14 +2979,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2984,14 +2996,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3000,14 +3012,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3017,14 +3029,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3033,14 +3045,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3050,14 +3062,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3066,14 +3078,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3116,14 +3128,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3132,14 +3144,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3172,7 +3184,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3182,14 +3194,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3198,14 +3210,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3215,14 +3227,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3231,14 +3243,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3248,49 +3260,115 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3099.3299999999999</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>191</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>192</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>193</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>39</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>18</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>166</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>194</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>181</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>18</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>74</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3336.3299999999999</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>195</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>196</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>197</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3609,10 +3687,20 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -395,7 +395,7 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>69.0000</t>
+    <t>92.0000</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -596,7 +596,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 6:32 PM</t>
+    <t>Monday, 29 September, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2392,7 +2392,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2409,7 +2409,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -3338,7 +3338,7 @@
     </row>
     <row r="71" ht="25.5" customHeight="1">
       <c r="P71" s="13">
-        <v>3336.3299999999999</v>
+        <v>3359.3299999999999</v>
       </c>
       <c r="Q71" s="13"/>
     </row>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>526.6800</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -542,6 +554,9 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>20:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -596,7 +611,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 6:33 PM</t>
+    <t>Monday, 29 September, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1435,7 +1450,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1445,14 +1460,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1485,7 +1500,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1540,7 +1555,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1567,24 +1582,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1593,14 +1608,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1610,14 +1625,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1626,14 +1641,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1643,14 +1658,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1659,14 +1674,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1676,14 +1691,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1709,14 +1724,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1725,14 +1740,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1742,11 +1757,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1782,7 +1797,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1798,7 +1813,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1808,11 +1823,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1824,31 +1839,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1857,28 +1872,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1890,14 +1905,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1907,14 +1922,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1923,14 +1938,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1940,14 +1955,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1956,14 +1971,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1973,11 +1988,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1989,14 +2004,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2006,11 +2021,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2022,14 +2037,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2039,11 +2054,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2055,14 +2070,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2072,14 +2087,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2088,14 +2103,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2105,14 +2120,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2121,7 +2136,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2138,14 +2153,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2154,14 +2169,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2171,14 +2186,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2187,14 +2202,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2204,7 +2219,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2227,21 +2242,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2253,31 +2268,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2293,7 +2308,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2310,7 +2325,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2319,7 +2334,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2336,11 +2351,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2352,14 +2367,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2369,11 +2384,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2385,14 +2400,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2402,11 +2417,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2418,14 +2433,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,14 +2450,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2451,31 +2466,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2484,7 +2499,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2497,15 +2512,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2517,14 +2532,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,14 +2549,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2550,14 +2565,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,11 +2582,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2583,20 +2598,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2623,24 +2638,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2649,14 +2664,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,11 +2681,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2682,14 +2697,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2699,11 +2714,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2715,14 +2730,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,11 +2747,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2748,14 +2763,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,11 +2780,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2781,14 +2796,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,14 +2813,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2814,14 +2829,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2831,14 +2846,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2847,14 +2862,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2864,14 +2879,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2880,20 +2895,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2904,7 +2919,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2920,7 +2935,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2930,14 +2945,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2946,7 +2961,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2967,10 +2982,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2979,14 +2994,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2996,11 +3011,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3012,14 +3027,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3029,11 +3044,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3045,14 +3060,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3062,14 +3077,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3078,7 +3093,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3095,14 +3110,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3111,14 +3126,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3128,14 +3143,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3144,14 +3159,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3161,14 +3176,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3177,14 +3192,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3194,11 +3209,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>27</v>
@@ -3210,14 +3225,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3227,11 +3242,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3243,14 +3258,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3260,14 +3275,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3276,14 +3291,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3293,11 +3308,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3309,14 +3324,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3326,49 +3341,82 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3359.3299999999999</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>195</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>196</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>197</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>199</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>186</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>18</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>78</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3904.0100000000002</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>200</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>201</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>202</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3697,10 +3745,15 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -104,12 +104,24 @@
     <t>1:3</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>141.00</t>
   </si>
   <si>
@@ -125,18 +137,6 @@
     <t>16.8300</t>
   </si>
   <si>
-    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
-  </si>
-  <si>
-    <t>198.00</t>
-  </si>
-  <si>
-    <t>526.6800</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -242,9 +242,6 @@
     <t>FARCOVIT B12 30 CAPS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -554,9 +551,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>20:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -611,7 +605,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 6:38 PM</t>
+    <t>Monday, 29 September, 2025 6:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1401,7 +1395,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1410,14 +1404,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1427,11 +1421,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1443,14 +1437,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1460,14 +1454,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1813,7 +1807,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1823,11 +1817,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1839,7 +1833,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1856,11 +1850,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1872,7 +1866,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1889,11 +1883,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1905,7 +1899,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1922,11 +1916,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1938,7 +1932,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1955,11 +1949,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>23</v>
@@ -1971,7 +1965,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2004,7 +1998,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2021,11 +2015,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2037,7 +2031,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2054,11 +2048,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2070,7 +2064,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2087,11 +2081,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2103,7 +2097,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2120,11 +2114,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2136,7 +2130,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2153,7 +2147,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2169,7 +2163,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2190,7 +2184,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2202,7 +2196,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2223,7 +2217,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2235,14 +2229,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2252,11 +2246,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2268,7 +2262,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2289,7 +2283,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2301,7 +2295,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2318,14 +2312,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>120</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2334,7 +2328,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2351,11 +2345,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2367,7 +2361,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2384,11 +2378,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2400,7 +2394,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2417,11 +2411,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2433,7 +2427,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2450,11 +2444,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2466,14 +2460,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2483,14 +2477,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2499,7 +2493,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2516,11 +2510,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2532,7 +2526,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2549,11 +2543,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2565,14 +2559,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2582,11 +2576,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2598,7 +2592,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2615,11 +2609,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2631,14 +2625,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2648,11 +2642,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2664,7 +2658,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2681,11 +2675,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2697,7 +2691,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2714,11 +2708,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2730,14 +2724,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2763,7 +2757,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2780,11 +2774,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2796,7 +2790,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2813,11 +2807,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2829,7 +2823,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2846,11 +2840,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2862,7 +2856,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2879,11 +2873,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2895,7 +2889,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2912,11 +2906,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2928,14 +2922,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2945,11 +2939,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2961,7 +2955,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2978,11 +2972,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>27</v>
@@ -2994,7 +2988,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3011,11 +3005,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3027,14 +3021,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3044,11 +3038,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3060,7 +3054,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3077,11 +3071,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3093,7 +3087,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3110,14 +3104,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>181</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3126,7 +3120,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3143,11 +3137,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3159,14 +3153,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3192,14 +3186,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3209,11 +3203,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>27</v>
@@ -3225,14 +3219,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3242,11 +3236,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3258,7 +3252,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3275,11 +3269,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3291,7 +3285,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3308,11 +3302,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3324,7 +3318,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3341,11 +3335,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3357,14 +3351,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3374,11 +3368,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3386,13 +3380,13 @@
     </row>
     <row r="72" ht="25.5" customHeight="1">
       <c r="P72" s="13">
-        <v>3904.0100000000002</v>
+        <v>3398.9299999999998</v>
       </c>
       <c r="Q72" s="13"/>
     </row>
     <row r="73" ht="16.5" customHeight="1">
       <c t="s" r="A73" s="14">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -3400,13 +3394,13 @@
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c t="s" r="G73" s="15">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
       <c r="J73" s="16"/>
       <c t="s" r="K73" s="17">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L73" s="17"/>
       <c r="M73" s="17"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>46.5300</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>CALCIUM D3F 30 TAB.</t>
   </si>
   <si>
@@ -203,10 +215,22 @@
     <t>79.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:2</t>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
@@ -224,7 +248,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:2</t>
+    <t>5:1</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -455,9 +479,6 @@
     <t>TEMPO COOL للرضع</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>25.28</t>
   </si>
   <si>
@@ -512,6 +533,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -545,6 +575,18 @@
     <t>جل صبار برطمان</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -557,7 +599,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>شاش 15 سم</t>
@@ -584,28 +626,37 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>قطن ازن صغير</t>
   </si>
   <si>
     <t>10.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>قياس سكر</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t xml:space="preserve">لونا سوفت 50مل </t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 6:44 PM</t>
+    <t>Monday, 29 September, 2025 6:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1444,7 +1495,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1454,11 +1505,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1470,14 +1521,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1494,7 +1545,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1527,7 +1578,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1582,7 +1633,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1609,24 +1660,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1635,14 +1686,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1652,14 +1703,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1668,14 +1719,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1685,14 +1736,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1701,14 +1752,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1718,14 +1769,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1734,14 +1785,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1755,10 +1806,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1767,14 +1818,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1784,14 +1835,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1800,14 +1851,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1817,14 +1868,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1833,14 +1884,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1850,14 +1901,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1866,31 +1917,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1899,14 +1950,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,14 +1967,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1932,31 +1983,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1965,14 +2016,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1982,14 +2033,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1998,14 +2049,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2015,14 +2066,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2031,14 +2082,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,11 +2099,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2064,14 +2115,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2081,11 +2132,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2097,14 +2148,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2114,14 +2165,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2130,7 +2181,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2147,14 +2198,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2163,14 +2214,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2180,11 +2231,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2196,14 +2247,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2213,14 +2264,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2229,14 +2280,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2246,14 +2297,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2262,28 +2313,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2295,14 +2346,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,14 +2363,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,28 +2379,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2361,14 +2412,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,14 +2429,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2394,14 +2445,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,11 +2462,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2427,7 +2478,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2444,11 +2495,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2460,14 +2511,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,14 +2528,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,7 +2544,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2506,15 +2557,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2526,14 +2577,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,14 +2594,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,31 +2610,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2592,7 +2643,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2609,14 +2660,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,28 +2676,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2658,7 +2709,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2675,14 +2726,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2691,31 +2742,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2724,14 +2775,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,11 +2792,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2757,14 +2808,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,11 +2825,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2790,14 +2841,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2807,11 +2858,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2823,14 +2874,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2840,14 +2891,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2856,14 +2907,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,11 +2924,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2889,14 +2940,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2906,11 +2957,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2922,24 +2973,24 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -2962,24 +3013,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,28 +3039,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3021,14 +3072,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3038,11 +3089,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3054,7 +3105,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3071,14 +3122,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,14 +3138,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3104,14 +3155,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3120,14 +3171,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3137,14 +3188,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3153,14 +3204,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3170,11 +3221,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3186,14 +3237,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3203,14 +3254,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3219,14 +3270,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3236,14 +3287,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3252,14 +3303,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3269,14 +3320,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3285,14 +3336,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3302,11 +3353,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3318,14 +3369,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3335,14 +3386,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3351,14 +3402,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3368,49 +3419,247 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3398.9299999999998</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>205</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>51</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>18</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>206</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>207</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>16</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>18</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>206</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>208</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>16</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>18</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>135</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>209</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>47</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>18</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>179</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>210</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>211</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>18</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>212</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>214</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
         <v>198</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>199</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>200</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>18</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>85</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3624.835</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>215</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>216</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>217</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3744,10 +3993,40 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>CALCIUM D3F 30 TAB.</t>
   </si>
   <si>
@@ -197,6 +206,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>CONVENTIN 100MG 30 CAP.</t>
   </si>
   <si>
@@ -293,12 +311,6 @@
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>FULPRAZAL 40 MG 14 CAPS.</t>
   </si>
   <si>
@@ -587,6 +599,27 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:28</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -617,9 +650,6 @@
     <t>5.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -629,9 +659,6 @@
     <t>قطن ازن صغير</t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -656,7 +683,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 6:46 PM</t>
+    <t>Monday, 29 September, 2025 6:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1528,7 +1555,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1545,7 +1572,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1561,7 +1588,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1571,14 +1598,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1587,14 +1614,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1604,14 +1631,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1620,14 +1647,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1637,11 +1664,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1653,28 +1680,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1686,20 +1713,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1710,7 +1737,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1726,7 +1753,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1743,7 +1770,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1759,7 +1786,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1792,7 +1819,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1802,14 +1829,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1825,7 +1852,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1835,14 +1862,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1851,14 +1878,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1872,7 +1899,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>35</v>
@@ -1908,7 +1935,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1924,7 +1951,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1934,14 +1961,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1950,14 +1977,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1974,7 +2001,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1990,13 +2017,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2007,7 +2034,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2023,7 +2050,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2040,7 +2067,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2056,13 +2083,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2073,7 +2100,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2089,7 +2116,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2106,7 +2133,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2122,7 +2149,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2139,7 +2166,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2155,7 +2182,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2165,11 +2192,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2181,14 +2208,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2198,11 +2225,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2214,14 +2241,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2231,14 +2258,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2247,7 +2274,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2264,14 +2291,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2280,14 +2307,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2297,7 +2324,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2320,7 +2347,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2330,14 +2357,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2353,7 +2380,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2363,14 +2390,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2379,28 +2406,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2412,14 +2439,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2429,14 +2456,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2445,28 +2472,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2478,14 +2505,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2495,14 +2522,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2511,14 +2538,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2528,11 +2555,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2544,7 +2571,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2561,11 +2588,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2577,14 +2604,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2594,14 +2621,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2610,7 +2637,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2623,15 +2650,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2643,14 +2670,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2660,14 +2687,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2676,31 +2703,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2709,7 +2736,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2726,14 +2753,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2742,28 +2769,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2775,7 +2802,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2792,14 +2819,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2815,24 +2842,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2841,14 +2868,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2858,11 +2885,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2874,14 +2901,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2891,11 +2918,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2907,14 +2934,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2924,11 +2951,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2947,7 +2974,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2964,7 +2991,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2980,7 +3007,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2990,11 +3017,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3006,14 +3033,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3023,11 +3050,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3039,14 +3066,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3056,11 +3083,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3072,31 +3099,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3105,20 +3132,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3126,10 +3153,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3138,14 +3165,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3178,7 +3205,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3188,14 +3215,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3204,7 +3231,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3221,11 +3248,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3237,14 +3264,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3254,11 +3281,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3270,14 +3297,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3287,14 +3314,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3303,14 +3330,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3320,14 +3347,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3336,14 +3363,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3353,14 +3380,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3369,14 +3396,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3393,7 +3420,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3409,7 +3436,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3419,14 +3446,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3442,7 +3469,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3456,10 +3483,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3468,14 +3495,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3485,11 +3512,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3501,14 +3528,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3518,14 +3545,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3534,14 +3561,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3551,14 +3578,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3567,14 +3594,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3584,14 +3611,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3600,14 +3627,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3617,49 +3644,181 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3624.835</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>215</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>216</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>217</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>16</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>18</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>139</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>218</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>50</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>18</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>183</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>219</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>220</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>18</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>221</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>223</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>209</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>18</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>91</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3832.835</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>224</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>225</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>226</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4023,10 +4182,30 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -416,6 +416,18 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
   </si>
   <si>
@@ -683,7 +695,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 6:57 PM</t>
+    <t>Monday, 29 September, 2025 6:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2578,7 +2590,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2588,14 +2600,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2604,14 +2616,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2621,11 +2633,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2637,14 +2649,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2654,11 +2666,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2670,14 +2682,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2687,14 +2699,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2703,31 +2715,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2736,7 +2748,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2749,15 +2761,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2769,14 +2781,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2786,14 +2798,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2802,14 +2814,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2819,11 +2831,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2835,28 +2847,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2868,31 +2880,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2901,14 +2913,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2918,11 +2930,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2934,14 +2946,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2951,11 +2963,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2967,14 +2979,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2984,11 +2996,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3000,14 +3012,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3017,11 +3029,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3033,14 +3045,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3050,14 +3062,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3066,14 +3078,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3083,14 +3095,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3099,14 +3111,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3116,14 +3128,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3132,14 +3144,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3149,14 +3161,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3165,20 +3177,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3205,7 +3217,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3215,14 +3227,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3231,7 +3243,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3252,10 +3264,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3264,14 +3276,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3281,11 +3293,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3297,14 +3309,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3314,11 +3326,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3330,14 +3342,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3347,11 +3359,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3384,10 +3396,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>199</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3403,7 +3415,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3413,14 +3425,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3429,14 +3441,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3446,14 +3458,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3462,7 +3474,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3479,14 +3491,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3495,14 +3507,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3512,14 +3524,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3528,14 +3540,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3545,14 +3557,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3561,14 +3573,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3578,11 +3590,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>27</v>
@@ -3594,14 +3606,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3611,11 +3623,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3627,14 +3639,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3644,14 +3656,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3660,7 +3672,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3677,11 +3689,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3693,14 +3705,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3710,11 +3722,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3726,14 +3738,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3743,11 +3755,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3766,7 +3778,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3776,49 +3788,82 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>227</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>213</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>18</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>91</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>92</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3832.835</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>224</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>225</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>226</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3877.3850000000002</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>228</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>229</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>230</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4202,10 +4247,15 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -695,7 +695,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 6:58 PM</t>
+    <t>Monday, 29 September, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -269,6 +269,15 @@
     <t>5:1</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -407,6 +416,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t xml:space="preserve">OMEGA 3  SYRUP</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>OMEGA ZAD SYURP 100 ML</t>
   </si>
   <si>
@@ -482,6 +500,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">SPERIENCE  SYRUP</t>
+  </si>
+  <si>
+    <t>149.00</t>
+  </si>
+  <si>
+    <t>149.0000</t>
+  </si>
+  <si>
     <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -527,9 +554,6 @@
     <t>110.00</t>
   </si>
   <si>
-    <t>110.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -644,9 +668,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
@@ -668,6 +689,9 @@
     <t>22:0</t>
   </si>
   <si>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
+  </si>
+  <si>
     <t>قطن ازن صغير</t>
   </si>
   <si>
@@ -695,7 +719,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 7:02 PM</t>
+    <t>Monday, 29 September, 2025 7:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1996,7 +2020,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2006,14 +2030,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2022,14 +2046,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2046,7 +2070,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2062,7 +2086,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2095,13 +2119,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2112,7 +2136,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2128,21 +2152,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2154,14 +2178,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2171,14 +2195,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2194,7 +2218,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2204,14 +2228,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2220,14 +2244,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2237,11 +2261,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2260,7 +2284,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2293,7 +2317,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2326,7 +2350,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2343,7 +2367,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2359,7 +2383,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2373,10 +2397,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2385,7 +2409,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2402,14 +2426,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2418,14 +2442,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2435,14 +2459,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2451,14 +2475,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2468,11 +2492,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2484,28 +2508,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2517,31 +2541,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2550,14 +2574,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2567,14 +2591,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>134</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2590,24 +2614,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2616,7 +2640,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2633,11 +2657,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2649,14 +2673,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2673,7 +2697,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2722,7 +2746,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2732,14 +2756,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2761,7 +2785,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2788,7 +2812,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2798,14 +2822,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2821,13 +2845,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2838,7 +2862,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2871,7 +2895,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2887,7 +2911,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2904,7 +2928,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2920,7 +2944,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2930,14 +2954,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2946,14 +2970,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2963,14 +2987,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2979,31 +3003,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3012,14 +3036,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3029,11 +3053,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3045,14 +3069,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3062,11 +3086,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3078,14 +3102,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3095,14 +3119,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3111,14 +3135,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3128,11 +3152,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3144,14 +3168,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3161,14 +3185,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3184,7 +3208,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3201,7 +3225,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3217,21 +3241,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3243,31 +3267,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3283,13 +3307,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3326,11 +3350,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3342,7 +3366,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3359,14 +3383,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3375,14 +3399,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3392,11 +3416,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3408,14 +3432,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3425,14 +3449,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>203</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3441,14 +3465,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3458,11 +3482,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3474,14 +3498,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3491,14 +3515,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3507,14 +3531,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3528,10 +3552,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>211</v>
-      </c>
-      <c t="s" r="Q73" s="12">
-        <v>81</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3547,7 +3571,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3557,11 +3581,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3573,14 +3597,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3594,10 +3618,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3613,7 +3637,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3623,14 +3647,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3646,7 +3670,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3656,14 +3680,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3672,14 +3696,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3689,14 +3713,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3705,14 +3729,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3722,14 +3746,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3738,14 +3762,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3755,11 +3779,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3771,14 +3795,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3788,14 +3812,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3804,14 +3828,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3821,49 +3845,181 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3877.3850000000002</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>228</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>229</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>16</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>18</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>149</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>230</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>81</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>18</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>195</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>231</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>232</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>18</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>233</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>235</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>220</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>18</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>94</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4309.3850000000002</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>236</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>237</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>238</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4252,10 +4408,30 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AM GINKO TAB</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>99.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
   </si>
   <si>
@@ -131,9 +143,6 @@
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -158,6 +167,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -233,6 +251,15 @@
     <t>79.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
@@ -572,6 +599,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>ZINCTRON 30 CAPS</t>
   </si>
   <si>
@@ -656,12 +692,24 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -707,19 +755,19 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>34:0</t>
+    <t>33:0</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>48.0000</t>
   </si>
   <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 7:08 PM</t>
+    <t>Monday, 29 September, 2025 7:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1393,13 +1441,13 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
@@ -1426,13 +1474,13 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1476,7 +1524,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1485,14 +1533,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1502,14 +1550,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1518,14 +1566,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1542,7 +1590,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1551,14 +1599,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1591,7 +1639,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1608,7 +1656,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1624,7 +1672,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1641,7 +1689,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1657,7 +1705,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1667,14 +1715,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1683,14 +1731,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1700,14 +1748,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1716,14 +1764,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1733,14 +1781,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1749,28 +1797,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1782,14 +1830,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1799,14 +1847,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1815,20 +1863,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1839,7 +1887,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1855,7 +1903,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1872,7 +1920,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1888,7 +1936,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1921,7 +1969,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1931,14 +1979,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1954,7 +2002,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1964,14 +2012,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1980,14 +2028,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1997,14 +2045,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2020,7 +2068,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2030,14 +2078,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2070,7 +2118,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2086,7 +2134,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2096,14 +2144,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2112,14 +2160,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2129,14 +2177,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2145,20 +2193,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2185,7 +2233,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2195,14 +2243,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2211,14 +2259,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2228,14 +2276,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2244,31 +2292,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2277,14 +2325,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2294,14 +2342,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2310,7 +2358,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2327,14 +2375,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2343,14 +2391,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2360,11 +2408,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2383,7 +2431,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2400,7 +2448,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2416,7 +2464,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2430,10 +2478,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2442,7 +2490,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2459,14 +2507,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2475,14 +2523,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2492,14 +2540,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2508,14 +2556,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2525,14 +2573,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2541,31 +2589,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2574,14 +2622,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2591,14 +2639,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2607,20 +2655,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2647,21 +2695,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2673,14 +2721,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2690,14 +2738,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2706,7 +2754,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2719,15 +2767,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2739,14 +2787,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2756,11 +2804,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2772,14 +2820,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2796,7 +2844,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2812,7 +2860,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2822,14 +2870,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2845,13 +2893,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2911,24 +2959,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2944,13 +2992,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2961,7 +3009,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2994,7 +3042,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3010,13 +3058,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3027,7 +3075,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3043,7 +3091,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3053,14 +3101,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3069,14 +3117,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3086,14 +3134,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3102,31 +3150,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3135,14 +3183,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3152,11 +3200,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3168,14 +3216,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3185,11 +3233,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3201,14 +3249,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3218,14 +3266,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3234,14 +3282,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3251,11 +3299,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3267,14 +3315,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3284,14 +3332,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3300,14 +3348,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3317,14 +3365,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3333,28 +3381,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3366,31 +3414,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3399,31 +3447,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3432,28 +3480,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3465,28 +3513,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3498,31 +3546,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3531,31 +3579,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>211</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3564,28 +3612,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3604,24 +3652,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3630,20 +3678,20 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3651,10 +3699,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3663,31 +3711,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3696,31 +3744,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3729,31 +3777,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3762,7 +3810,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3775,18 +3823,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3795,31 +3843,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3828,28 +3876,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>213</v>
+        <v>69</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3861,31 +3909,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3894,31 +3942,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3927,28 +3975,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -3960,66 +4008,231 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4309.3850000000002</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>244</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>16</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>23</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>225</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>245</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>16</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>23</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>158</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>246</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>90</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>23</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>207</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>247</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>248</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>23</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>249</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>251</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
         <v>236</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>237</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>238</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>23</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>103</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4628.0500000000002</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>252</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>253</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>254</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4428,10 +4641,35 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -170,12 +182,6 @@
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -464,9 +470,6 @@
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -767,7 +770,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 7:10 PM</t>
+    <t>Monday, 29 September, 2025 7:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1672,7 +1675,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1682,14 +1685,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1698,14 +1701,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1715,14 +1718,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1731,14 +1734,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1748,11 +1751,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1764,14 +1767,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1781,14 +1784,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1797,14 +1800,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1814,14 +1817,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1830,14 +1833,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1847,11 +1850,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1863,28 +1866,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1896,31 +1899,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1929,14 +1932,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1946,11 +1949,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1962,14 +1965,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1979,14 +1982,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1995,14 +1998,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2012,14 +2015,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2028,14 +2031,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2045,11 +2048,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2061,14 +2064,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2078,14 +2081,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2094,14 +2097,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2111,14 +2114,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2127,14 +2130,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2144,14 +2147,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2167,7 +2170,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2177,14 +2180,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2193,14 +2196,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2210,14 +2213,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2226,14 +2229,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2243,14 +2246,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2259,14 +2262,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2276,11 +2279,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2292,31 +2295,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2325,28 +2328,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2358,14 +2361,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2375,14 +2378,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2391,14 +2394,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2408,14 +2411,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2424,14 +2427,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2441,11 +2444,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2457,14 +2460,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2474,11 +2477,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2490,14 +2493,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2507,11 +2510,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2523,14 +2526,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2540,14 +2543,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2556,14 +2559,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2573,14 +2576,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2606,14 +2609,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2629,7 +2632,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2639,14 +2642,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2662,7 +2665,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2672,11 +2675,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2688,24 +2691,24 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2728,24 +2731,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>143</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2754,31 +2757,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2787,7 +2790,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2800,15 +2803,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2820,14 +2823,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2837,14 +2840,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2853,14 +2856,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2870,14 +2873,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2886,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2903,11 +2906,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2919,14 +2922,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2936,11 +2939,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2952,14 +2955,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2969,14 +2972,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2985,31 +2988,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3018,7 +3021,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3031,15 +3034,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3051,28 +3054,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3084,31 +3087,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3117,14 +3120,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3134,11 +3137,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3150,28 +3153,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3183,31 +3186,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3223,7 +3226,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3233,11 +3236,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3256,7 +3259,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3266,11 +3269,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3282,14 +3285,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3299,11 +3302,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3315,14 +3318,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3332,11 +3335,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3355,7 +3358,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3365,14 +3368,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3381,14 +3384,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3398,14 +3401,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3414,14 +3417,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3431,14 +3434,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3447,14 +3450,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3464,14 +3467,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3480,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3497,14 +3500,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3513,28 +3516,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3546,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3563,14 +3566,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3596,14 +3599,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3612,14 +3615,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3629,11 +3632,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3645,14 +3648,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3662,11 +3665,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3685,7 +3688,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3695,11 +3698,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3711,14 +3714,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3728,14 +3731,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>223</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3744,14 +3747,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3761,14 +3764,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3777,14 +3780,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3794,14 +3797,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3810,7 +3813,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3827,14 +3830,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>232</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3843,7 +3846,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3860,14 +3863,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>56</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3876,14 +3879,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3893,14 +3896,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3909,14 +3912,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3926,14 +3929,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>71</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3942,14 +3945,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3959,11 +3962,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>31</v>
@@ -3975,14 +3978,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3992,14 +3995,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4015,7 +4018,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4025,14 +4028,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4048,7 +4051,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4058,14 +4061,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4091,14 +4094,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4114,7 +4117,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4124,14 +4127,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4147,7 +4150,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4157,11 +4160,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>31</v>
@@ -4173,14 +4176,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4190,49 +4193,82 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4628.0500000000002</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>252</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>237</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>23</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>105</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4654.7799999999997</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
         <v>253</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
         <v>254</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>255</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4666,10 +4702,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -152,322 +152,322 @@
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>CALCIUM D3F 30 TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 100MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>COVERSYL 5MG 15 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>HELARIUM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>KEFLEX 1GM 16 TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMEGA 3  SYRUP</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
     <t>2:2</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>CALCIUM D3F 30 TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>COLD CONTROL 20 TAB</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN 100MG 30 CAP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>COVERSYL 5MG 15 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>FARCOVIT B12 30 CAPS.</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLUREST N 20 TABS</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>177.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>HELARIUM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>KEFLEX 1GM 16 TABS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMEGA 3  SYRUP</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
     <t>135.00</t>
@@ -1675,7 +1675,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1685,11 +1685,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1718,11 +1718,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1751,11 +1751,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1784,11 +1784,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1800,14 +1800,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1817,11 +1817,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>31</v>
@@ -1833,14 +1833,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1850,11 +1850,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1866,14 +1866,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1883,11 +1883,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1899,14 +1899,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1916,11 +1916,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1949,11 +1949,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2015,11 +2015,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2048,11 +2048,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2081,11 +2081,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2097,14 +2097,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>39</v>
@@ -2130,14 +2130,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2147,11 +2147,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2163,14 +2163,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>39</v>
@@ -2196,14 +2196,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2213,11 +2213,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>31</v>
@@ -2229,14 +2229,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2279,11 +2279,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2295,14 +2295,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2312,11 +2312,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2345,11 +2345,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2361,14 +2361,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2378,11 +2378,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2411,11 +2411,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>27</v>
@@ -2427,14 +2427,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2444,11 +2444,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2477,11 +2477,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2510,11 +2510,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2543,11 +2543,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2576,11 +2576,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2642,11 +2642,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2658,14 +2658,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2691,14 +2691,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2708,11 +2708,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2774,14 +2774,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>144</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>145</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2807,11 +2807,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2840,11 +2840,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2856,14 +2856,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2929,7 +2929,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3236,11 +3236,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3269,11 +3269,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3302,11 +3302,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3358,7 +3358,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3368,11 +3368,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3457,7 +3457,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3474,7 +3474,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3523,7 +3523,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>31</v>
@@ -3834,10 +3834,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3900,10 +3900,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3929,11 +3929,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>31</v>
@@ -4051,7 +4051,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4131,10 +4131,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4150,7 +4150,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>31</v>
@@ -4226,11 +4226,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -770,7 +770,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 7:13 PM</t>
+    <t>Monday, 29 September, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>46.5300</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -149,6 +158,15 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>A-VITON 50.000 I.U. 20 CAPS.</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -311,13 +329,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:2</t>
+    <t>9:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>FARCOVIT B12 30 CAPS.</t>
@@ -398,6 +416,12 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>KEFLEX 1GM 16 TABS.</t>
   </si>
   <si>
@@ -545,9 +569,6 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>31.6800</t>
-  </si>
-  <si>
     <t>TELFAST 120MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -770,7 +791,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 7:15 PM</t>
+    <t>Monday, 29 September, 2025 7:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1642,7 +1663,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1675,7 +1696,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1708,7 +1729,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1741,7 +1762,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1774,7 +1795,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1784,14 +1805,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1800,14 +1821,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1817,14 +1838,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1833,14 +1854,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1850,14 +1871,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1866,14 +1887,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1883,14 +1904,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1899,28 +1920,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1932,14 +1953,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1949,14 +1970,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1965,20 +1986,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1989,7 +2010,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2005,7 +2026,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2022,7 +2043,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2038,7 +2059,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2071,7 +2092,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2088,7 +2109,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2104,7 +2125,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2114,14 +2135,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2137,7 +2158,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2147,14 +2168,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2163,14 +2184,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2184,7 +2205,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>39</v>
@@ -2203,7 +2224,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2213,14 +2234,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2229,14 +2250,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2246,14 +2267,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2262,14 +2283,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2279,14 +2300,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2295,14 +2316,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2319,7 +2340,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2335,13 +2356,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2352,7 +2373,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2368,7 +2389,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2378,14 +2399,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2394,31 +2415,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2427,14 +2448,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2451,7 +2472,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2460,14 +2481,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2477,14 +2498,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2493,14 +2514,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2510,11 +2531,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2533,7 +2554,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2566,7 +2587,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2583,7 +2604,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2613,10 +2634,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2625,14 +2646,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2642,11 +2663,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2658,28 +2679,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2691,14 +2712,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2708,14 +2729,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2731,24 +2752,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2764,7 +2785,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2774,14 +2795,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>144</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2790,28 +2811,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2823,28 +2844,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2856,14 +2877,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2873,14 +2894,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2889,7 +2910,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2902,15 +2923,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2922,14 +2943,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2939,11 +2960,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2955,14 +2976,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2972,14 +2993,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2988,14 +3009,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3005,14 +3026,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3021,28 +3042,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3054,7 +3075,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3071,11 +3092,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3087,31 +3108,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3120,31 +3141,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3153,7 +3174,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3170,14 +3191,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3186,14 +3207,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3203,14 +3224,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3219,14 +3240,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3236,14 +3257,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3259,7 +3280,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3269,14 +3290,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3285,31 +3306,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3318,14 +3339,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3335,11 +3356,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3351,14 +3372,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3368,11 +3389,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3384,14 +3405,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3401,14 +3422,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3417,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3434,11 +3455,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3450,14 +3471,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3467,14 +3488,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>113</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3483,14 +3504,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,11 +3521,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3516,14 +3537,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3533,11 +3554,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3549,31 +3570,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3582,20 +3603,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3603,10 +3624,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3615,28 +3636,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3648,14 +3669,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3665,11 +3686,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3681,7 +3702,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3698,14 +3719,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3714,14 +3735,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3764,14 +3785,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>224</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3780,14 +3801,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3797,11 +3818,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3813,14 +3834,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3830,14 +3851,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3846,14 +3867,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3863,14 +3884,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3879,14 +3900,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3896,14 +3917,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3912,14 +3933,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3929,14 +3950,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3945,14 +3966,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3962,14 +3983,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>31</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3985,7 +4006,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3995,14 +4016,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4018,7 +4039,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4028,11 +4049,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4044,14 +4065,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4061,11 +4082,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>31</v>
@@ -4077,14 +4098,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4098,10 +4119,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4110,7 +4131,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4127,14 +4148,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4143,14 +4164,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4160,11 +4181,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>31</v>
@@ -4176,14 +4197,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4193,14 +4214,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4209,14 +4230,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4226,49 +4247,148 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4654.7799999999997</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>253</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>254</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>97</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>23</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>215</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
         <v>255</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>256</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>23</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>257</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>259</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>244</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>23</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>110</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4851.6199999999999</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>260</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>261</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>262</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4707,10 +4827,25 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -791,7 +791,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 7:19 PM</t>
+    <t>Monday, 29 September, 2025 7:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -158,15 +158,6 @@
     <t>9.1200</t>
   </si>
   <si>
-    <t>A-VITON 50.000 I.U. 20 CAPS.</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -791,7 +782,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 7:21 PM</t>
+    <t>Monday, 29 September, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1729,7 +1720,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1746,7 +1737,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1779,7 +1770,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1795,7 +1786,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1812,7 +1803,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1828,7 +1819,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1838,11 +1829,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1854,14 +1845,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1871,14 +1862,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1887,14 +1878,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1904,14 +1895,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1920,14 +1911,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1937,11 +1928,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1953,28 +1944,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1986,20 +1977,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2010,7 +2001,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2026,7 +2017,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2059,7 +2050,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2076,7 +2067,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2092,7 +2083,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2109,7 +2100,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2125,7 +2116,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2158,7 +2149,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2168,14 +2159,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2201,14 +2192,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2217,14 +2208,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2234,14 +2225,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2250,14 +2241,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2267,14 +2258,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2290,7 +2281,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2300,14 +2291,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2316,14 +2307,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2340,7 +2331,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2356,7 +2347,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2389,13 +2380,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2406,7 +2397,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2422,21 +2413,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2448,14 +2439,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2465,14 +2456,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2488,7 +2479,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2498,14 +2489,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2514,14 +2505,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2531,11 +2522,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2554,7 +2545,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2587,7 +2578,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2620,7 +2611,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2637,7 +2628,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2653,24 +2644,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2679,31 +2670,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2712,7 +2703,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2729,14 +2720,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2745,14 +2736,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2762,14 +2753,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2778,14 +2769,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2795,11 +2786,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2811,28 +2802,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2844,31 +2835,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2877,31 +2868,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2923,7 +2914,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2950,7 +2941,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2960,14 +2951,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2976,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3000,7 +2991,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3016,7 +3007,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3049,7 +3040,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3082,7 +3073,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3092,14 +3083,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3115,24 +3106,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3154,7 +3145,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3181,13 +3172,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3214,13 +3205,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3228,10 +3219,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3240,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3257,11 +3248,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3280,13 +3271,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3313,24 +3304,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3339,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3356,11 +3347,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3372,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,11 +3380,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3405,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3422,11 +3413,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3438,14 +3429,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3455,11 +3446,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3471,14 +3462,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3488,14 +3479,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3511,7 +3502,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3521,14 +3512,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3537,14 +3528,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3554,14 +3545,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3577,7 +3568,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3594,7 +3585,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3610,7 +3601,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3627,7 +3618,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3643,21 +3634,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3669,14 +3660,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3686,14 +3677,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3702,7 +3693,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3719,14 +3710,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3742,7 +3733,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3752,11 +3743,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3768,14 +3759,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3785,11 +3776,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3801,14 +3792,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3818,11 +3809,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3834,14 +3825,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3851,14 +3842,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3867,14 +3858,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3888,10 +3879,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>231</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3907,7 +3898,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3921,10 +3912,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3933,7 +3924,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3950,14 +3941,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>97</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3966,7 +3957,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3983,14 +3974,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3999,14 +3990,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4016,14 +4007,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4032,14 +4023,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4049,14 +4040,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4082,11 +4073,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>31</v>
@@ -4098,14 +4089,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4115,14 +4106,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4131,14 +4122,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4148,14 +4139,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4164,14 +4155,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4181,14 +4172,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4197,7 +4188,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4214,14 +4205,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4230,14 +4221,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4247,14 +4238,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4263,14 +4254,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>97</v>
+        <v>253</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4280,11 +4271,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>31</v>
@@ -4296,14 +4287,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4313,82 +4304,49 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4832.6199999999999</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>257</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
         <v>258</v>
       </c>
-      <c t="s" r="Q94" s="12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="A95" s="7">
-        <v>89</v>
-      </c>
-      <c r="B95" s="7"/>
-      <c t="s" r="C95" s="8">
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
         <v>259</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c t="s" r="H95" s="9">
-        <v>244</v>
-      </c>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c t="s" r="L95" s="10">
-        <v>23</v>
-      </c>
-      <c r="M95" s="10"/>
-      <c t="s" r="N95" s="8">
-        <v>110</v>
-      </c>
-      <c r="O95" s="8"/>
-      <c t="s" r="P95" s="11">
-        <v>111</v>
-      </c>
-      <c t="s" r="Q95" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4851.6199999999999</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>260</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>261</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>262</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4837,15 +4795,10 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>A-VITON 50.000 I.U. 20 CAPS.</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -320,246 +329,246 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>9:1</t>
+    <t>8:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>79.6800</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>HELARIUM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>KEFLEX 1GM 16 TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMEGA 3  SYRUP</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>SHAAN BODY MILK 300ML</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>SHAAN LIP BALM 5 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPERIENCE  SYRUP</t>
+  </si>
+  <si>
+    <t>149.00</t>
+  </si>
+  <si>
+    <t>149.0000</t>
+  </si>
+  <si>
+    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
     <t>31.6800</t>
   </si>
   <si>
-    <t>FARCOVIT B12 30 CAPS.</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLUREST N 20 TABS</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>177.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>HELARIUM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>KEFLEX 1GM 16 TABS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMEGA 3  SYRUP</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>SHAAN BODY MILK 300ML</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>SHAAN LIP BALM 5 GM</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPERIENCE  SYRUP</t>
-  </si>
-  <si>
-    <t>149.00</t>
-  </si>
-  <si>
-    <t>149.0000</t>
-  </si>
-  <si>
-    <t>STOPRRHEA 2 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>TELFAST 120MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -599,6 +608,15 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -719,10 +737,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>12:0</t>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -734,9 +752,6 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
     <t>شاش 5سم</t>
   </si>
   <si>
@@ -782,7 +797,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 7:22 PM</t>
+    <t>Monday, 29 September, 2025 7:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1720,7 +1735,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1737,7 +1752,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1770,7 +1785,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1786,7 +1801,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1803,7 +1818,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1819,7 +1834,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1829,11 +1844,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1845,14 +1860,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1862,14 +1877,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1878,14 +1893,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1895,14 +1910,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1911,14 +1926,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1928,11 +1943,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1944,28 +1959,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1977,20 +1992,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2001,7 +2016,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2017,7 +2032,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2050,7 +2065,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2067,7 +2082,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2083,7 +2098,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2100,7 +2115,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2116,7 +2131,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2149,7 +2164,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2159,14 +2174,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2192,14 +2207,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2208,14 +2223,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2225,14 +2240,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2241,14 +2256,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2258,14 +2273,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2281,7 +2296,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,14 +2306,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2307,14 +2322,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2331,7 +2346,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2340,14 +2355,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2357,11 +2372,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2373,31 +2388,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2406,28 +2421,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2439,14 +2454,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2456,14 +2471,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2472,14 +2487,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2489,14 +2504,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2505,14 +2520,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2522,11 +2537,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2538,14 +2553,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2555,11 +2570,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2571,14 +2586,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2588,11 +2603,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2604,14 +2619,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2621,14 +2636,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2637,31 +2652,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2670,31 +2685,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2703,7 +2718,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2720,14 +2735,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2736,14 +2751,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2753,11 +2768,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2769,14 +2784,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2786,11 +2801,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2802,28 +2817,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2835,31 +2850,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>149</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2868,31 +2883,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>152</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2914,7 +2929,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2941,7 +2956,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2951,14 +2966,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2967,14 +2982,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2991,7 +3006,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3007,7 +3022,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3040,7 +3055,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3073,7 +3088,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3083,14 +3098,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3106,24 +3121,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3132,7 +3147,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3145,15 +3160,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3165,28 +3180,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3198,31 +3213,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3238,7 +3253,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3271,13 +3286,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3304,24 +3319,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,11 +3362,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3363,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,11 +3395,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,11 +3428,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3429,14 +3444,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,11 +3461,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3462,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,14 +3494,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3502,7 +3517,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3512,14 +3527,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3528,14 +3543,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3545,14 +3560,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3561,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3578,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3601,7 +3616,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3618,7 +3633,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3634,24 +3649,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3660,31 +3675,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3693,14 +3708,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3710,11 +3725,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3726,14 +3741,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3743,14 +3758,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3759,7 +3774,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3776,11 +3791,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3792,14 +3807,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3809,11 +3824,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3825,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3842,14 +3857,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>228</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3858,14 +3873,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3875,11 +3890,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3891,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3912,10 +3927,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>94</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3924,14 +3939,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3941,14 +3956,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>237</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3978,10 +3993,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3997,7 +4012,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4007,14 +4022,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4040,14 +4055,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4056,14 +4071,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4073,14 +4088,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4096,7 +4111,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4106,14 +4121,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4122,14 +4137,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4139,11 +4154,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>31</v>
@@ -4155,7 +4170,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4172,11 +4187,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4188,14 +4203,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4205,14 +4220,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4221,14 +4236,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4238,14 +4253,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4254,14 +4269,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>253</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4271,14 +4286,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>31</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4294,7 +4309,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4304,49 +4319,115 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4832.6199999999999</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>257</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
         <v>258</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>23</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
         <v>259</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>261</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>243</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>23</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>111</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4963.2799999999997</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>262</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>263</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>264</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4795,10 +4876,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>ANOXICAM 20MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -326,6 +335,18 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -350,6 +371,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -383,6 +413,15 @@
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
+    <t>GABAVERONA 300MG CAPS</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>31.1850</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -395,12 +434,6 @@
     <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>HELARIUM CREAM 15 GM</t>
   </si>
   <si>
@@ -434,6 +467,15 @@
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -548,9 +590,6 @@
     <t>90.00</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPERIENCE  SYRUP</t>
   </si>
   <si>
@@ -599,6 +638,15 @@
     <t>14:0</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VENTAJ CREAM 50 GM</t>
   </si>
   <si>
@@ -797,7 +845,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 7:23 PM</t>
+    <t>Monday, 29 September, 2025 7:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1570,7 +1618,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1580,14 +1628,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1596,14 +1644,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1613,14 +1661,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1629,14 +1677,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1646,14 +1694,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1669,7 +1717,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1702,7 +1750,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1735,7 +1783,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1752,7 +1800,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1768,7 +1816,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1785,7 +1833,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1801,7 +1849,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1818,7 +1866,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1834,7 +1882,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1851,7 +1899,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1867,7 +1915,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1877,11 +1925,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1893,14 +1941,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1910,14 +1958,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1926,14 +1974,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1943,14 +1991,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1959,14 +2007,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1976,11 +2024,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1992,28 +2040,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2025,20 +2073,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2049,7 +2097,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2065,7 +2113,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2098,7 +2146,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2115,7 +2163,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2131,7 +2179,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2148,7 +2196,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2164,7 +2212,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2197,7 +2245,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2207,14 +2255,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2240,14 +2288,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2256,14 +2304,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2273,14 +2321,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2289,14 +2337,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2306,14 +2354,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2329,7 +2377,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2339,14 +2387,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2355,14 +2403,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2372,14 +2420,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2388,14 +2436,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2412,7 +2460,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2421,31 +2469,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2454,14 +2502,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2471,11 +2519,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2487,14 +2535,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2504,14 +2552,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2520,31 +2568,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2553,14 +2601,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2570,14 +2618,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2586,7 +2634,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2603,14 +2651,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2619,14 +2667,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2636,11 +2684,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2652,28 +2700,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2685,28 +2733,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2718,14 +2766,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2735,14 +2783,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2751,14 +2799,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2768,11 +2816,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2784,14 +2832,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2801,14 +2849,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2817,28 +2865,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2850,31 +2898,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2883,14 +2931,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2900,14 +2948,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2916,31 +2964,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2949,14 +2997,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2966,11 +3014,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2982,14 +3030,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2999,14 +3047,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3015,28 +3063,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3048,14 +3096,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3065,14 +3113,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3081,7 +3129,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3094,15 +3142,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3114,14 +3162,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3131,14 +3179,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3147,20 +3195,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3171,7 +3219,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3220,13 +3268,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3253,7 +3301,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3270,7 +3318,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3286,7 +3334,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3296,14 +3344,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3312,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3329,14 +3377,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3345,7 +3393,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3362,11 +3410,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3391,15 +3439,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3411,14 +3459,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,14 +3476,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3444,14 +3492,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3461,14 +3509,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3477,31 +3525,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3510,14 +3558,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,14 +3575,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3543,14 +3591,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3560,14 +3608,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3576,14 +3624,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3593,11 +3641,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3609,14 +3657,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,14 +3674,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,14 +3690,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,14 +3707,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3675,14 +3723,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,11 +3740,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3708,31 +3756,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3741,31 +3789,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3781,21 +3829,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3807,31 +3855,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3847,24 +3895,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,28 +3921,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3906,14 +3954,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,14 +3971,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>234</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3939,14 +3987,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,14 +4004,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3972,14 +4020,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,14 +4037,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4012,7 +4060,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4022,14 +4070,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>243</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4038,14 +4086,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4055,14 +4103,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,14 +4119,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,11 +4136,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4125,10 +4173,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>31</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4137,14 +4185,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,14 +4202,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4170,7 +4218,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4187,14 +4235,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4203,14 +4251,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,14 +4268,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>31</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4236,7 +4284,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4253,14 +4301,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4269,14 +4317,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4286,14 +4334,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4302,14 +4350,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>97</v>
+        <v>264</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4319,14 +4367,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4335,14 +4383,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4352,14 +4400,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4368,14 +4416,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4385,49 +4433,247 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4963.2799999999997</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>262</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>263</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>264</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>269</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>70</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>23</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>252</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>270</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>16</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>23</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>252</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>271</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>16</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>23</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>181</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>272</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>100</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>23</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>234</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>273</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>274</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>23</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>275</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>277</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>259</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>23</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>118</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5193.0950000000003</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>278</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>279</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>280</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4886,10 +5132,40 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -845,7 +845,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 7:31 PM</t>
+    <t>Monday, 29 September, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -128,186 +128,189 @@
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>39.6000</t>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>A-VITON 50.000 I.U. 20 CAPS.</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>CALCIUM D3F 30 TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 100MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>COVERSYL 5MG 15 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>A-VITON 50.000 I.U. 20 CAPS.</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>CALCIUM D3F 30 TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>COLD CONTROL 20 TAB</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN 100MG 30 CAP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>COVERSYL 5MG 15 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -509,9 +512,6 @@
     <t>33.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t xml:space="preserve">OMEGA 3  SYRUP</t>
   </si>
   <si>
@@ -845,7 +845,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 7:32 PM</t>
+    <t>Monday, 29 September, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1684,7 +1684,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1694,14 +1694,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1710,14 +1710,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2212,7 +2212,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2295,7 +2295,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2304,14 +2304,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2321,11 +2321,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2337,14 +2337,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2361,7 +2361,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2387,11 +2387,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>34</v>
@@ -2403,14 +2403,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2420,11 +2420,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2436,14 +2436,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2453,14 +2453,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2469,14 +2469,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2486,11 +2486,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2519,11 +2519,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2552,11 +2552,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2585,11 +2585,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2601,14 +2601,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2651,11 +2651,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>27</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2717,11 +2717,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2750,11 +2750,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2816,11 +2816,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2849,11 +2849,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2948,11 +2948,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2964,14 +2964,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2981,11 +2981,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3030,14 +3030,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,11 +3047,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3113,14 +3113,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>166</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3268,7 +3268,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3334,7 +3334,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3351,7 +3351,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3466,7 +3466,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3664,7 +3664,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3740,11 +3740,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3780,7 +3780,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3796,7 +3796,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3879,7 +3879,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>34</v>
@@ -4242,7 +4242,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>34</v>
@@ -4536,10 +4536,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4555,7 +4555,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>34</v>
@@ -4631,11 +4631,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="103" ht="24.75" customHeight="1">
       <c r="P103" s="13">
-        <v>5193.0950000000003</v>
+        <v>5212.8950000000004</v>
       </c>
       <c r="Q103" s="13"/>
     </row>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -281,6 +281,15 @@
     <t>79.0000</t>
   </si>
   <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -311,12 +320,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -485,6 +503,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -500,9 +527,6 @@
     <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -536,9 +560,6 @@
     <t>2:2</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
     <t>44.5500</t>
   </si>
   <si>
@@ -845,7 +866,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 7:36 PM</t>
+    <t>Monday, 29 September, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2212,13 +2233,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2245,7 +2266,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2278,7 +2299,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2288,14 +2309,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2304,14 +2325,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2321,14 +2342,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2337,14 +2358,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2354,14 +2375,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2370,14 +2391,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2387,14 +2408,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2403,14 +2424,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2420,14 +2441,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2436,14 +2457,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2453,14 +2474,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2469,14 +2490,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2486,14 +2507,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2502,14 +2523,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2519,14 +2540,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2542,7 +2563,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2575,13 +2596,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2608,7 +2629,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2618,14 +2639,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2634,31 +2655,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2667,14 +2688,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2684,14 +2705,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2700,31 +2721,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2733,14 +2754,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2750,11 +2771,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2773,24 +2794,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2799,14 +2820,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2816,11 +2837,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2832,14 +2853,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2849,14 +2870,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2872,21 +2893,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2898,14 +2919,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2915,14 +2936,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2931,28 +2952,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2964,14 +2985,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2981,14 +3002,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2997,14 +3018,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3014,11 +3035,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3030,14 +3051,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,14 +3068,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3070,17 +3091,17 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3103,7 +3124,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3120,7 +3141,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3136,21 +3157,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3162,7 +3183,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3175,18 +3196,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3195,14 +3216,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3212,14 +3233,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3228,7 +3249,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3241,15 +3262,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3261,14 +3282,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3278,11 +3299,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3294,14 +3315,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3311,14 +3332,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3327,14 +3348,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3344,14 +3365,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3360,28 +3381,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3393,7 +3414,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3410,11 +3431,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3433,24 +3454,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3459,31 +3480,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3492,7 +3513,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3509,14 +3530,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3525,14 +3546,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,14 +3563,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3558,14 +3579,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,14 +3596,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3598,7 +3619,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3608,14 +3629,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3624,31 +3645,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3657,14 +3678,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3674,11 +3695,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3690,14 +3711,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3707,11 +3728,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>31</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3730,7 +3751,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3740,11 +3761,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3756,14 +3777,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3773,14 +3794,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3789,14 +3810,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,14 +3827,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3829,7 +3850,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3839,11 +3860,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3855,14 +3876,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3872,14 +3893,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3888,14 +3909,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3905,11 +3926,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3921,14 +3942,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3938,11 +3959,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3954,31 +3975,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3987,20 +4008,20 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4008,10 +4029,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,28 +4041,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4053,14 +4074,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4070,11 +4091,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4086,7 +4107,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4103,14 +4124,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4119,14 +4140,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4169,14 +4190,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>250</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4185,14 +4206,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4202,11 +4223,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4218,14 +4239,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4235,14 +4256,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4251,14 +4272,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4268,14 +4289,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4284,14 +4305,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4301,14 +4322,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4317,14 +4338,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4334,14 +4355,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4357,7 +4378,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4367,14 +4388,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4383,14 +4404,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4400,14 +4421,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4416,14 +4437,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4433,11 +4454,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4449,14 +4470,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>70</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4466,11 +4487,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>34</v>
@@ -4482,14 +4503,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4503,10 +4524,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4515,7 +4536,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4532,14 +4553,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4548,14 +4569,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4565,11 +4586,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>34</v>
@@ -4581,14 +4602,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4598,14 +4619,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4614,14 +4635,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4631,49 +4652,148 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5212.8950000000004</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>278</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>279</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>104</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>23</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>241</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>280</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>281</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>23</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>282</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>284</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>266</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>23</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>125</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5486.0649999999996</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>285</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>286</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>287</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5162,10 +5282,25 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -866,7 +866,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 7:48 PM</t>
+    <t>Monday, 29 September, 2025 7:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -866,7 +866,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 7:54 PM</t>
+    <t>Monday, 29 September, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>46.5300</t>
   </si>
   <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -272,6 +284,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>COVERSYL 5MG 15 F.C. TAB.</t>
   </si>
   <si>
@@ -398,219 +419,231 @@
     <t>180.00</t>
   </si>
   <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>GABAVERONA 300MG CAPS</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>31.1850</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>HELARIUM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>KEFLEX 1GM 16 TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMEGA 3  SYRUP</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>89.1000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>SHAAN BODY MILK 300ML</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>SHAAN LIP BALM 5 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
     <t>90.0000</t>
   </si>
   <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLUREST N 20 TABS</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>177.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>GABAVERONA 300MG CAPS</t>
-  </si>
-  <si>
-    <t>94.50</t>
-  </si>
-  <si>
-    <t>31.1850</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>HELARIUM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>KEFLEX 1GM 16 TABS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMEGA 3  SYRUP</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>SHAAN BODY MILK 300ML</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>SHAAN LIP BALM 5 GM</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPERIENCE  SYRUP</t>
   </si>
   <si>
@@ -806,27 +839,24 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>32.0000</t>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
   </si>
   <si>
     <t>16:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
     <t>شاش 5سم</t>
   </si>
   <si>
-    <t>17:0</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -866,7 +896,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 8:03 PM</t>
+    <t>Monday, 29 September, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1771,7 +1801,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1781,11 +1811,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1797,14 +1827,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1814,11 +1844,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1830,14 +1860,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1847,14 +1877,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1863,14 +1893,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1880,14 +1910,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1896,7 +1926,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1913,14 +1943,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1929,14 +1959,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1946,14 +1976,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1962,14 +1992,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1979,11 +2009,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1995,14 +2025,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2012,14 +2042,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2052,7 +2082,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2107,7 +2137,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2134,24 +2164,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2160,14 +2190,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2177,11 +2207,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2193,14 +2223,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2210,14 +2240,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2226,28 +2256,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2259,14 +2289,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2276,14 +2306,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2292,28 +2322,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2325,14 +2355,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2342,14 +2372,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2365,7 +2395,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2375,11 +2405,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2391,14 +2421,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2408,14 +2438,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>109</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2441,14 +2471,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2457,14 +2487,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2474,14 +2504,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2490,14 +2520,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2507,14 +2537,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2530,7 +2560,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2540,14 +2570,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>123</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2556,14 +2586,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2573,14 +2603,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2589,14 +2619,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2613,7 +2643,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2622,14 +2652,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2639,11 +2669,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2655,7 +2685,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2668,18 +2698,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2688,14 +2718,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2705,14 +2735,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2721,31 +2751,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2754,14 +2784,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2771,14 +2801,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2787,31 +2817,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2820,14 +2850,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2837,11 +2867,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2853,31 +2883,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2886,14 +2916,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2903,11 +2933,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2919,14 +2949,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2936,14 +2966,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2952,28 +2982,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2985,14 +3015,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3002,14 +3032,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3018,28 +3048,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3051,14 +3081,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3068,14 +3098,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3084,14 +3114,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3101,11 +3131,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3117,14 +3147,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3134,14 +3164,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3150,14 +3180,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3167,7 +3197,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3190,7 +3220,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3200,14 +3230,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3216,14 +3246,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3233,14 +3263,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3249,28 +3279,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3282,7 +3312,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3295,18 +3325,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3315,14 +3345,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3332,14 +3362,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3348,7 +3378,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3361,15 +3391,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3381,14 +3411,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3398,11 +3428,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3414,14 +3444,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3431,14 +3461,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3447,14 +3477,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3464,14 +3494,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3480,28 +3510,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3513,7 +3543,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3530,11 +3560,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3546,31 +3576,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3579,31 +3609,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3612,7 +3642,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3629,14 +3659,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3645,14 +3675,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3662,14 +3692,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3678,14 +3708,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3695,14 +3725,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3711,14 +3741,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3728,14 +3758,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3744,31 +3774,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3777,14 +3807,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3794,11 +3824,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3810,14 +3840,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3827,11 +3857,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3843,14 +3873,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>70</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3860,11 +3890,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3876,14 +3906,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3893,14 +3923,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3909,14 +3939,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3926,14 +3956,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3942,14 +3972,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3959,11 +3989,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3975,14 +4005,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3992,14 +4022,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4008,14 +4038,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4025,11 +4055,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4041,14 +4071,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4058,11 +4088,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4074,31 +4104,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4107,31 +4137,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4140,28 +4170,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4173,14 +4203,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4190,11 +4220,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4206,7 +4236,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4223,14 +4253,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4239,14 +4269,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4256,11 +4286,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4272,14 +4302,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4289,14 +4319,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>257</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4305,14 +4335,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4322,11 +4352,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4345,7 +4375,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4355,14 +4385,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4371,14 +4401,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4388,14 +4418,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4404,14 +4434,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4421,14 +4451,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4437,14 +4467,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4454,14 +4484,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4470,14 +4500,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4487,14 +4517,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>34</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4503,14 +4533,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4520,14 +4550,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4536,14 +4566,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4553,11 +4583,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4569,14 +4599,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>70</v>
+        <v>276</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4586,11 +4616,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>34</v>
@@ -4602,14 +4632,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4619,14 +4649,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4635,7 +4665,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4652,14 +4682,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>104</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4668,14 +4698,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4685,11 +4715,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>34</v>
@@ -4701,14 +4731,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4718,14 +4748,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4734,14 +4764,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4751,49 +4781,148 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5486.0649999999996</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>285</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>286</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>287</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>289</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>111</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>23</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>252</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>290</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>291</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>23</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>292</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>294</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>280</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>23</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>132</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5671.1149999999998</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>295</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>296</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>297</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5297,10 +5426,25 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -311,6 +311,15 @@
     <t>82.1700</t>
   </si>
   <si>
+    <t>CYMBATEX 20 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -392,237 +401,237 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:1</t>
+    <t>7:3</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>79.6800</t>
+    <t>95.5200</t>
+  </si>
+  <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>GABAVERONA 300MG CAPS</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>31.1850</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>HELARIUM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>KEFLEX 1GM 16 TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMEGA 3  SYRUP</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>89.1000</t>
+  </si>
+  <si>
+    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>FARCOVIT B12 30 CAPS.</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLUREST N 20 TABS</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>177.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>GABAVERONA 300MG CAPS</t>
-  </si>
-  <si>
-    <t>94.50</t>
-  </si>
-  <si>
-    <t>31.1850</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>HELARIUM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>KEFLEX 1GM 16 TABS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>264.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMEGA 3  SYRUP</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>89.1000</t>
-  </si>
-  <si>
-    <t>OXALEPTAL 60MG/ML ORAL SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
     <t>14.1000</t>
   </si>
   <si>
@@ -683,6 +692,15 @@
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>UNIPRIDOL 5MG/5ML SYP. 100 ML</t>
   </si>
   <si>
@@ -710,6 +728,12 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>VOLTAREN 100MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -863,7 +887,10 @@
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
-    <t>22:0</t>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>80.0000</t>
   </si>
   <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
@@ -881,6 +908,12 @@
     <t xml:space="preserve">لونا سوفت 50مل </t>
   </si>
   <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -896,7 +929,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 8:11 PM</t>
+    <t>Monday, 29 September, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2362,7 +2395,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2395,7 +2428,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2428,7 +2461,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2438,14 +2471,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2454,14 +2487,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2471,14 +2504,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2487,14 +2520,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2511,7 +2544,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2527,7 +2560,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2537,14 +2570,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2553,14 +2586,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2570,14 +2603,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>34</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2593,7 +2626,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2603,14 +2636,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2619,14 +2652,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2636,14 +2669,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>130</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2652,14 +2685,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2669,14 +2702,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2685,14 +2718,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2702,11 +2735,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2718,14 +2751,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2735,11 +2768,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2751,31 +2784,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2784,28 +2817,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2817,14 +2850,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2834,14 +2867,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2850,14 +2883,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2867,14 +2900,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2883,31 +2916,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2916,7 +2949,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2929,18 +2962,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2949,14 +2982,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2966,11 +2999,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2982,14 +3015,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2999,11 +3032,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3015,14 +3048,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3032,14 +3065,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3048,31 +3081,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3088,24 +3121,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>54</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3121,7 +3154,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3131,14 +3164,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3147,14 +3180,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3164,14 +3197,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3180,14 +3213,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3197,14 +3230,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3220,24 +3253,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3246,31 +3279,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3279,14 +3312,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3296,11 +3329,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3312,31 +3345,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3345,31 +3378,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>35</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3378,31 +3411,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3411,7 +3444,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3424,15 +3457,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3444,14 +3477,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3461,14 +3494,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3484,7 +3517,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3494,14 +3527,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3510,14 +3543,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3527,11 +3560,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3543,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3560,11 +3593,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3576,14 +3609,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3593,14 +3626,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3616,24 +3649,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3655,7 +3688,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3682,13 +3715,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3715,13 +3748,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3732,7 +3765,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3748,7 +3781,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3781,13 +3814,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3814,24 +3847,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3840,14 +3873,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3857,11 +3890,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3873,14 +3906,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3890,11 +3923,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3906,14 +3939,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3923,11 +3956,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3939,14 +3972,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3956,11 +3989,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3972,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3989,11 +4022,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4005,14 +4038,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4022,14 +4055,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4038,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4055,14 +4088,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4088,7 +4121,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4111,7 +4144,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4121,14 +4154,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4144,7 +4177,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4177,7 +4210,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4187,11 +4220,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4203,31 +4236,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4236,31 +4269,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4276,13 +4309,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4319,11 +4352,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4335,7 +4368,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4352,14 +4385,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4368,14 +4401,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4385,11 +4418,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4401,14 +4434,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4418,14 +4451,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>268</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4434,14 +4467,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4451,11 +4484,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4467,14 +4500,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4484,14 +4517,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>84</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4500,14 +4533,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4521,7 +4554,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>276</v>
@@ -4540,7 +4573,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4554,10 +4587,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4566,14 +4599,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4583,14 +4616,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4599,14 +4632,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4616,14 +4649,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>34</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4632,14 +4665,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4649,14 +4682,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4665,14 +4698,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4682,11 +4715,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4698,14 +4731,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>74</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4715,11 +4748,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>34</v>
@@ -4731,14 +4764,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4748,14 +4781,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4764,7 +4797,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4781,14 +4814,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4797,14 +4830,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4814,11 +4847,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>157</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>34</v>
@@ -4830,14 +4863,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4847,14 +4880,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4863,14 +4896,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4880,49 +4913,181 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5671.1149999999998</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>295</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>296</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>297</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>298</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>114</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>23</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>260</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>299</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>300</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>23</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>200</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>301</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>302</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>23</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>303</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>305</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>288</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>23</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>134</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5881.375</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>306</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>307</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>308</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5441,10 +5606,30 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -320,6 +320,15 @@
     <t>57.4200</t>
   </si>
   <si>
+    <t xml:space="preserve">DAFLOFIX TAB </t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -419,6 +428,12 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>FEMTONEX 30 TABS</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -587,9 +602,6 @@
     <t>OMEGA ZAD SYURP 100 ML</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>120.0000</t>
   </si>
   <si>
@@ -626,6 +638,15 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>REDAND 20 CAPSULE</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>112.5000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -929,7 +950,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 8:23 PM</t>
+    <t>Monday, 29 September, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2428,13 +2449,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2461,7 +2482,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2494,7 +2515,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2504,14 +2525,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2520,14 +2541,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2537,14 +2558,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2553,14 +2574,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2577,7 +2598,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2593,7 +2614,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2603,14 +2624,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2619,14 +2640,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2636,14 +2657,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2659,7 +2680,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2669,14 +2690,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2685,14 +2706,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,14 +2723,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2718,14 +2739,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2742,7 +2763,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2758,7 +2779,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2791,7 +2812,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,14 +2822,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2817,7 +2838,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2830,18 +2851,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2850,14 +2871,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2867,14 +2888,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2883,31 +2904,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2933,14 +2954,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2949,31 +2970,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2982,14 +3003,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2999,11 +3020,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3015,31 +3036,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3048,14 +3069,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3065,11 +3086,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3081,14 +3102,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3098,14 +3119,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3114,24 +3135,24 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3154,7 +3175,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3168,10 +3189,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3180,28 +3201,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3213,14 +3234,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3230,14 +3251,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3246,14 +3267,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,11 +3284,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3292,15 +3313,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3312,14 +3333,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3329,11 +3350,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3345,31 +3366,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3378,31 +3399,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3418,7 +3439,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3428,14 +3449,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3444,7 +3465,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3461,14 +3482,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3477,14 +3498,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3494,14 +3515,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3510,31 +3531,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3560,11 +3581,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3576,14 +3597,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,14 +3614,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3609,7 +3630,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3626,11 +3647,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3642,14 +3663,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,14 +3680,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3675,7 +3696,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3688,15 +3709,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3708,14 +3729,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3725,14 +3746,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3741,31 +3762,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3774,31 +3795,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3807,7 +3828,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3824,14 +3845,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3840,14 +3861,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3857,14 +3878,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3873,14 +3894,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3890,14 +3911,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3913,7 +3934,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3930,7 +3951,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3946,24 +3967,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3972,14 +3993,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3989,11 +4010,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4005,14 +4026,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,11 +4043,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4038,14 +4059,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,11 +4076,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4078,7 +4099,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,11 +4109,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4104,14 +4125,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,11 +4142,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4137,14 +4158,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4154,14 +4175,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>66</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4170,14 +4191,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,14 +4208,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4203,7 +4224,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4220,11 +4241,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4236,14 +4257,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,14 +4274,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>66</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4269,14 +4290,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,11 +4307,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4302,14 +4323,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,11 +4340,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4335,31 +4356,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>82</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4368,20 +4389,20 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4389,10 +4410,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4401,28 +4422,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4434,14 +4455,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,11 +4472,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4467,7 +4488,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4484,14 +4505,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4500,14 +4521,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4550,14 +4571,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>276</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,14 +4587,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4583,11 +4604,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4599,14 +4620,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4616,14 +4637,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4632,14 +4653,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4649,14 +4670,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,14 +4686,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4682,14 +4703,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>84</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4705,7 +4726,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4715,14 +4736,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4738,7 +4759,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4752,10 +4773,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>34</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4764,14 +4785,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4781,11 +4802,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>70</v>
@@ -4804,7 +4825,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4814,11 +4835,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4830,14 +4851,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4847,11 +4868,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>34</v>
@@ -4863,14 +4884,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4884,10 +4905,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4896,7 +4917,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4913,14 +4934,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4929,14 +4950,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4946,11 +4967,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>34</v>
@@ -4962,14 +4983,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4979,11 +5000,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -4995,14 +5016,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5012,14 +5033,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>34</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5035,7 +5056,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>288</v>
+        <v>117</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5045,49 +5066,148 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5881.375</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>306</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
         <v>307</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>23</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>204</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>308</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>309</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>23</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>310</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>312</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>295</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>23</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>137</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6251.875</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>313</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>314</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>315</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5626,10 +5746,25 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -950,7 +950,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 8:28 PM</t>
+    <t>Monday, 29 September, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -215,6 +215,12 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>CANDALKAN 4MG 14 TABLETS</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
@@ -287,10 +293,13 @@
     <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>42.00</t>
   </si>
   <si>
-    <t>21.0000</t>
+    <t>42.0000</t>
   </si>
   <si>
     <t>COVERSYL 5MG 15 F.C. TAB.</t>
@@ -362,9 +371,6 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -419,6 +425,21 @@
     <t>95.5200</t>
   </si>
   <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FARCOVIT B12 30 CAPS.</t>
   </si>
   <si>
@@ -518,7 +539,7 @@
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
-    <t>57.0000</t>
+    <t>114.0000</t>
   </si>
   <si>
     <t>KEFLEX 1GM 16 TABS.</t>
@@ -542,9 +563,6 @@
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
   </si>
   <si>
@@ -734,9 +752,6 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>38.0000</t>
   </si>
   <si>
@@ -779,6 +794,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>WE.GEL GEL 75 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.V. VIAL</t>
   </si>
   <si>
@@ -851,6 +875,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>حفاضات كبار سن جير ميني 36ق</t>
   </si>
   <si>
@@ -890,9 +923,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
@@ -950,7 +980,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 8:37 PM</t>
+    <t>Monday, 29 September, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2086,7 +2116,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2096,14 +2126,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2112,14 +2142,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2129,14 +2159,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2145,14 +2175,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2162,14 +2192,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2178,14 +2208,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2195,11 +2225,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2211,28 +2241,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2244,31 +2274,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2277,14 +2307,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2294,11 +2324,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2310,14 +2340,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2327,11 +2357,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2343,14 +2373,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2383,13 +2413,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2400,7 +2430,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2416,13 +2446,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2449,13 +2479,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2482,13 +2512,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2515,7 +2545,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2548,7 +2578,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2558,14 +2588,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2574,14 +2604,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2591,14 +2621,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2607,14 +2637,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2624,14 +2654,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2640,14 +2670,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2657,14 +2687,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2680,7 +2710,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2690,14 +2720,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>34</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2706,14 +2736,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2723,14 +2753,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2739,14 +2769,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2756,14 +2786,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2772,14 +2802,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2789,14 +2819,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2805,14 +2835,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2822,14 +2852,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>115</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2838,28 +2868,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2871,14 +2901,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2888,11 +2918,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2904,31 +2934,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2937,14 +2967,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2954,14 +2984,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2977,7 +3007,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2994,7 +3024,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3010,24 +3040,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3036,28 +3066,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3076,7 +3106,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3093,7 +3123,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3109,7 +3139,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3119,11 +3149,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3142,13 +3172,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3159,7 +3189,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3175,7 +3205,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3192,7 +3222,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3208,21 +3238,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3234,7 +3264,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3251,14 +3281,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3274,7 +3304,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3284,14 +3314,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3300,31 +3330,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3333,14 +3363,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3350,14 +3380,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3366,31 +3396,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3399,14 +3429,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3416,14 +3446,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3432,14 +3462,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3449,11 +3479,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3465,14 +3495,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3482,14 +3512,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3498,14 +3528,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3515,14 +3545,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3531,28 +3561,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3564,7 +3594,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3577,18 +3607,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3597,14 +3627,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3614,14 +3644,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>115</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3630,7 +3660,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3643,15 +3673,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3663,14 +3693,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3680,11 +3710,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3696,14 +3726,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3713,14 +3743,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3729,14 +3759,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3746,14 +3776,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3762,14 +3792,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3779,14 +3809,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3795,7 +3825,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3808,15 +3838,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3828,14 +3858,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3845,14 +3875,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3861,31 +3891,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>44</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3894,31 +3924,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3927,7 +3957,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3944,14 +3974,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3960,14 +3990,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3977,14 +4007,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3993,14 +4023,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4010,14 +4040,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4026,14 +4056,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4043,14 +4073,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4059,31 +4089,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4092,14 +4122,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4109,11 +4139,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4132,7 +4162,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4165,7 +4195,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4175,11 +4205,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>31</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4191,14 +4221,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4208,11 +4238,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4231,7 +4261,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4241,7 +4271,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4264,7 +4294,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>34</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4274,14 +4304,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4290,14 +4320,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4307,14 +4337,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4323,7 +4353,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4340,11 +4370,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4356,14 +4386,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4373,14 +4403,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4389,14 +4419,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4406,11 +4436,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4422,14 +4452,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4439,11 +4469,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4455,28 +4485,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4488,31 +4518,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>34</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4521,31 +4551,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4554,28 +4584,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4587,14 +4617,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4604,11 +4634,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4620,14 +4650,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4637,14 +4667,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4653,14 +4683,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4670,14 +4700,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>283</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4686,14 +4716,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4703,11 +4733,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4719,14 +4749,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4736,14 +4766,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4752,14 +4782,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4769,14 +4799,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>291</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4785,7 +4815,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4802,14 +4832,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>84</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4818,14 +4848,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4835,14 +4865,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4851,14 +4881,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4868,14 +4898,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4891,7 +4921,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4901,14 +4931,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4917,7 +4947,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4934,14 +4964,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4950,14 +4980,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4967,14 +4997,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>279</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4983,14 +5013,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5000,11 +5030,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5016,14 +5046,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5033,14 +5063,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>138</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5049,14 +5079,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>117</v>
+        <v>309</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5066,14 +5096,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>164</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5082,14 +5112,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>307</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5099,11 +5129,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5115,14 +5145,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5132,11 +5162,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>34</v>
@@ -5148,14 +5178,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5165,49 +5195,214 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>137</v>
+        <v>296</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>138</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6251.875</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>313</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>314</v>
       </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>16</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>23</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>210</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>315</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>94</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>23</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>275</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>316</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>317</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>23</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>210</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>318</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>319</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>23</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>320</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>322</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>305</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>23</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>144</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6537.875</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>323</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>324</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>325</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5761,10 +5956,35 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -113,492 +113,501 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>129.4800</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>78.00</t>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>A-VITON 50.000 I.U. 20 CAPS.</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>CALCIUM D3F 30 TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>CANDALKAN 4MG 14 TABLETS</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>CONVENTIN 100MG 30 CAP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>COVERSYL 5MG 15 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
+    <t>CYMBATEX 20 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAFLOFIX TAB </t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>95.5200</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FEMTONEX 30 TABS</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>FULPRAZAL 40 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>177.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>GABAVERONA 300MG CAPS</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>31.1850</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>HELARIUM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>KEFLEX 1GM 16 TABS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
   </si>
   <si>
     <t>117.0000</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>ANTODINE 20MG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>59.4000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>14.3000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>A-VITON 50.000 I.U. 20 CAPS.</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>CALCIUM D3F 30 TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>CANDALKAN 4MG 14 TABLETS</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>COLD CONTROL 20 TAB</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>CONVENTIN 100MG 30 CAP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>COVERSYL 5MG 15 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>COXORIZET CAPS</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>82.1700</t>
-  </si>
-  <si>
-    <t>CYMBATEX 20 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>174.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAFLOFIX TAB </t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>95.5200</t>
-  </si>
-  <si>
-    <t>DOLPHIN 25 MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FARCOVIT B12 30 CAPS.</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FEMTONEX 30 TABS</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLUREST N 20 TABS</t>
-  </si>
-  <si>
-    <t>FULPRAZAL 40 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>177.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>GABAVERONA 300MG CAPS</t>
-  </si>
-  <si>
-    <t>94.50</t>
-  </si>
-  <si>
-    <t>31.1850</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>GOLDEN FER 10 MG/ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>HELARIUM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>KEFLEX 1GM 16 TABS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>264.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -845,6 +854,9 @@
     <t>املاح افونا</t>
   </si>
   <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>بامبرز رقم 2</t>
   </si>
   <si>
@@ -854,6 +866,12 @@
     <t>330.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان كوبي </t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -917,21 +935,27 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>شاش 5سم</t>
+  </si>
+  <si>
     <t>17:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>شاش 5سم</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
@@ -980,7 +1004,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 9:29 PM</t>
+    <t>Monday, 29 September, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1819,7 +1843,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1829,14 +1853,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1845,14 +1869,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1862,11 +1886,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>21</v>
@@ -1878,14 +1902,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1895,11 +1919,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1911,7 +1935,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1928,11 +1952,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1944,7 +1968,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1961,11 +1985,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1977,7 +2001,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1994,11 +2018,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -2010,14 +2034,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2027,11 +2051,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -2043,14 +2067,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2060,11 +2084,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -2076,7 +2100,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2093,11 +2117,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -2109,7 +2133,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2130,7 +2154,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2142,7 +2166,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2159,11 +2183,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -2175,14 +2199,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2192,14 +2216,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2208,14 +2232,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2225,11 +2249,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2241,14 +2265,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2258,11 +2282,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2274,14 +2298,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2291,11 +2315,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2307,7 +2331,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2324,11 +2348,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -2340,7 +2364,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2357,11 +2381,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2373,14 +2397,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2390,11 +2414,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2406,7 +2430,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2423,11 +2447,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2439,7 +2463,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2456,11 +2480,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2472,7 +2496,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2489,11 +2513,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2505,7 +2529,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2522,11 +2546,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2538,14 +2562,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2555,11 +2579,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2571,7 +2595,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2588,11 +2612,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2604,14 +2628,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2625,10 +2649,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2637,14 +2661,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2654,11 +2678,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2670,14 +2694,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2687,11 +2711,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2703,14 +2727,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2724,10 +2748,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2736,14 +2760,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2753,14 +2777,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2769,14 +2793,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2786,11 +2810,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2802,14 +2826,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2819,14 +2843,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>37</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2835,14 +2859,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2852,11 +2876,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2868,14 +2892,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2885,11 +2909,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2901,14 +2925,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2918,11 +2942,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2934,7 +2958,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2955,10 +2979,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2967,7 +2991,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2984,11 +3008,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3000,14 +3024,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3017,11 +3041,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3033,7 +3057,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3050,11 +3074,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -3066,14 +3090,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3083,11 +3107,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3099,7 +3123,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3116,11 +3140,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>27</v>
@@ -3132,14 +3156,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3149,11 +3173,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3165,7 +3189,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3182,11 +3206,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3198,7 +3222,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3215,11 +3239,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3231,7 +3255,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3264,7 +3288,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3281,11 +3305,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3297,14 +3321,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3314,11 +3338,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3330,14 +3354,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3347,14 +3371,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3363,7 +3387,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3380,7 +3404,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3396,7 +3420,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3413,11 +3437,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3429,14 +3453,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3446,11 +3470,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3462,14 +3486,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3483,7 +3507,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3495,14 +3519,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3512,11 +3536,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3528,7 +3552,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3545,11 +3569,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3561,14 +3585,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3578,11 +3602,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3594,7 +3618,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3615,7 +3639,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3627,14 +3651,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3644,14 +3668,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3660,7 +3684,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3677,11 +3701,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3693,7 +3717,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3710,11 +3734,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3726,14 +3750,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3743,14 +3767,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3759,7 +3783,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3776,11 +3800,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3792,14 +3816,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3809,11 +3833,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3825,7 +3849,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3842,11 +3866,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3858,7 +3882,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3875,11 +3899,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3891,14 +3915,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3908,14 +3932,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3924,7 +3948,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3941,11 +3965,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3957,7 +3981,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3974,11 +3998,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3990,7 +4014,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4007,11 +4031,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4023,14 +4047,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4040,11 +4064,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4056,7 +4080,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4073,11 +4097,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4089,7 +4113,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4106,11 +4130,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4122,7 +4146,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4139,11 +4163,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4155,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4172,11 +4196,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4188,7 +4212,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4221,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4238,11 +4262,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4254,14 +4278,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4271,11 +4295,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4287,14 +4311,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4304,11 +4328,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4320,14 +4344,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4337,11 +4361,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4353,7 +4377,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4370,11 +4394,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4386,14 +4410,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4403,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4419,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4436,11 +4460,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4452,7 +4476,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4469,11 +4493,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4485,7 +4509,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4502,11 +4526,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4518,14 +4542,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4535,14 +4559,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4551,7 +4575,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4568,11 +4592,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4584,14 +4608,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4601,11 +4625,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4617,14 +4641,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4634,11 +4658,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4650,14 +4674,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4667,14 +4691,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4683,7 +4707,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4700,11 +4724,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4716,14 +4740,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4733,11 +4757,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4749,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4766,11 +4790,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4782,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4799,11 +4823,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4815,14 +4839,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4832,14 +4856,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4848,14 +4872,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4865,14 +4889,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>294</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4881,14 +4905,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4898,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4914,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4931,14 +4955,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>86</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4947,7 +4971,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4964,14 +4988,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>302</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4980,7 +5004,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4997,14 +5021,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>72</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5013,14 +5037,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>305</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5030,14 +5054,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5046,14 +5070,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5063,14 +5087,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>86</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5079,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5096,14 +5120,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5112,14 +5136,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>317</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5129,14 +5153,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5145,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5162,14 +5186,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>287</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5178,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5195,14 +5219,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5211,7 +5235,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5228,14 +5252,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>145</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5244,14 +5268,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5261,14 +5285,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5277,14 +5301,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>317</v>
+        <v>95</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5294,14 +5318,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5310,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5327,14 +5351,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5343,14 +5367,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5360,49 +5384,82 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>144</v>
+        <v>328</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>145</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6537.875</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>323</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>324</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>325</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>330</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>312</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>23</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>146</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6652.3549999999996</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>331</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>332</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>333</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5981,10 +6038,15 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -1004,7 +1004,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 9:33 PM</t>
+    <t>Monday, 29 September, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -371,6 +371,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DENTINOX 2.65% INFANT COLIC DROPS 100 ML</t>
+  </si>
+  <si>
+    <t>103.00</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -437,6 +446,15 @@
     <t>38.00</t>
   </si>
   <si>
+    <t>EUTHYROX 100MCG 50 TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -455,6 +473,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>FEMTONEX 30 TABS</t>
   </si>
   <si>
@@ -548,6 +578,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>JOINTGAURD 30 CAPS</t>
+  </si>
+  <si>
+    <t>199.00</t>
+  </si>
+  <si>
+    <t>65.6700</t>
+  </si>
+  <si>
     <t>KEFLEX 1GM 16 TABS.</t>
   </si>
   <si>
@@ -701,6 +740,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>SILDEN 100 MG 8F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t xml:space="preserve">SPERIENCE  SYRUP</t>
   </si>
   <si>
@@ -878,6 +926,9 @@
     <t>26:0</t>
   </si>
   <si>
+    <t>بيروسول 300 مل</t>
+  </si>
+  <si>
     <t>جل صبار برطمان</t>
   </si>
   <si>
@@ -923,6 +974,9 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>رباط ضغط 10سم</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -968,6 +1022,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -995,16 +1058,19 @@
     <t>33:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
+    <t>معجون اسنان بارودونتكس 50مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 9:38 PM</t>
+    <t>Monday, 29 September, 2025 10:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2668,7 +2734,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2685,7 +2751,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2718,7 +2784,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2734,7 +2800,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2744,14 +2810,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2760,14 +2826,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2777,14 +2843,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>39</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2800,7 +2866,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2810,14 +2876,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2826,14 +2892,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2843,14 +2909,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2859,14 +2925,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2876,14 +2942,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2892,7 +2958,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2905,18 +2971,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2932,7 +2998,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2965,24 +3031,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2991,14 +3057,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3008,11 +3074,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3024,14 +3090,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3041,11 +3107,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3057,31 +3123,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3090,14 +3156,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3107,14 +3173,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3123,14 +3189,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3140,14 +3206,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3156,31 +3222,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3189,28 +3255,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3222,14 +3288,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3239,14 +3305,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3255,14 +3321,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3272,11 +3338,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3288,31 +3354,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3321,14 +3387,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3338,14 +3404,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3354,31 +3420,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3387,7 +3453,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3404,14 +3470,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3420,14 +3486,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3437,14 +3503,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3453,31 +3519,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3486,14 +3552,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3503,14 +3569,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3519,31 +3585,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3552,14 +3618,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3569,11 +3635,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3585,14 +3651,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3602,14 +3668,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3618,31 +3684,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3658,24 +3724,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3684,28 +3750,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3717,14 +3783,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3734,11 +3800,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3750,31 +3816,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>119</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3783,14 +3849,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3800,14 +3866,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3816,28 +3882,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3849,7 +3915,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3866,11 +3932,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3882,14 +3948,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3899,14 +3965,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3915,14 +3981,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3932,14 +3998,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3948,28 +4014,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3981,7 +4047,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3998,11 +4064,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4014,7 +4080,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4027,18 +4093,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4047,14 +4113,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4064,14 +4130,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4080,7 +4146,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4093,18 +4159,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,31 +4179,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4146,14 +4212,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,14 +4229,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4179,28 +4245,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4212,14 +4278,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,14 +4295,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4245,14 +4311,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,14 +4328,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4278,31 +4344,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4311,14 +4377,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,11 +4394,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4344,14 +4410,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4361,11 +4427,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4377,7 +4443,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4394,11 +4460,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4410,14 +4476,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4427,14 +4493,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4443,14 +4509,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4460,14 +4526,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4476,14 +4542,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,11 +4559,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4509,14 +4575,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,11 +4592,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4542,14 +4608,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,14 +4625,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>92</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4575,14 +4641,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4592,14 +4658,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>67</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4608,14 +4674,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4625,14 +4691,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4641,24 +4707,24 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4687,18 +4753,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4707,31 +4773,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4740,31 +4806,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4773,28 +4839,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>85</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4806,14 +4872,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,11 +4889,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4839,14 +4905,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,14 +4922,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4872,14 +4938,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,14 +4955,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4905,14 +4971,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,14 +4988,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>300</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4938,14 +5004,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4955,11 +5021,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4971,14 +5037,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,14 +5054,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5011,7 +5077,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,14 +5087,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>309</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,14 +5103,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,14 +5120,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5077,7 +5143,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>312</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,14 +5153,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>86</v>
+        <v>312</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,14 +5169,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,14 +5186,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>39</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5136,14 +5202,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,14 +5219,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5169,14 +5235,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,11 +5252,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>213</v>
+        <v>294</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>214</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5202,14 +5268,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,14 +5285,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>293</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5235,7 +5301,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5252,14 +5318,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5268,7 +5334,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5285,14 +5351,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>213</v>
+        <v>312</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5301,14 +5367,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,14 +5384,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>278</v>
+        <v>86</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5334,14 +5400,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,14 +5417,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>214</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5367,14 +5433,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,14 +5450,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5400,14 +5466,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5417,49 +5483,346 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>146</v>
+        <v>338</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>147</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6652.3549999999996</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>331</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>332</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>333</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>340</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>16</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>23</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>226</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>341</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>77</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>23</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>319</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>342</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>16</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>23</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>319</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>343</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>16</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>23</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>226</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>344</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>95</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>23</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>294</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>345</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>346</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>23</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>226</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>347</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>348</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>23</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>156</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>349</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>350</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>293</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>23</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>351</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>352</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>330</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>23</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>152</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7148.0249999999996</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>353</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>354</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>355</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6043,10 +6406,55 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -170,7 +170,7 @@
     <t>210.00</t>
   </si>
   <si>
-    <t>105.0000</t>
+    <t>210.0000</t>
   </si>
   <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
@@ -2008,7 +2008,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2025,7 +2025,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -5792,7 +5792,7 @@
     </row>
     <row r="131" ht="25.5" customHeight="1">
       <c r="P131" s="13">
-        <v>7148.0249999999996</v>
+        <v>7253.0249999999996</v>
       </c>
       <c r="Q131" s="13"/>
     </row>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -1070,7 +1070,7 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 10:50 PM</t>
+    <t>Monday, 29 September, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -593,6 +593,12 @@
     <t>132.00</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -989,9 +995,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>18:0</t>
   </si>
   <si>
@@ -1070,7 +1073,10 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 10:56 PM</t>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>Monday, 29 September, 2025 11:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3625,7 +3631,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3635,11 +3641,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3651,14 +3657,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3668,14 +3674,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3684,14 +3690,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3701,14 +3707,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3717,31 +3723,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3750,31 +3756,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3783,14 +3789,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3800,11 +3806,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3816,31 +3822,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3856,24 +3862,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3882,31 +3888,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3915,7 +3921,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3928,11 +3934,11 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3955,7 +3961,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3965,14 +3971,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3988,7 +3994,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3998,14 +4004,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4014,14 +4020,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4031,11 +4037,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4047,14 +4053,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4064,11 +4070,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4097,14 +4103,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4130,14 +4136,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4146,31 +4152,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4179,7 +4185,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4192,15 +4198,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4229,14 +4235,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>245</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4245,31 +4251,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4278,31 +4284,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4328,11 +4334,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4344,28 +4350,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4377,31 +4383,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4427,11 +4433,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>108</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4460,11 +4466,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>31</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4493,11 +4499,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4516,7 +4522,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4526,11 +4532,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4549,7 +4555,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4559,11 +4565,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>133</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4582,7 +4588,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4592,11 +4598,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>164</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4608,14 +4614,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4625,11 +4631,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4648,7 +4654,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4658,14 +4664,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4674,14 +4680,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4691,14 +4697,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>67</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4707,14 +4713,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4724,14 +4730,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4757,11 +4763,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4773,14 +4779,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4790,14 +4796,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4806,14 +4812,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4823,14 +4829,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4839,14 +4845,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4856,14 +4862,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4872,28 +4878,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>85</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4922,14 +4928,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4945,7 +4951,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4955,14 +4961,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4971,14 +4977,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4988,11 +4994,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -5011,7 +5017,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>304</v>
+        <v>73</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5021,11 +5027,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5044,7 +5050,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5054,11 +5060,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>109</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5070,7 +5076,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5087,11 +5093,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5103,14 +5109,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5120,11 +5126,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5136,14 +5142,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5153,14 +5159,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5169,14 +5175,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>315</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5186,14 +5192,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>25</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>317</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5202,14 +5208,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5219,14 +5225,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5235,14 +5241,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5252,11 +5258,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5268,14 +5274,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5285,14 +5291,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>87</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5322,10 +5328,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>326</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>327</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5334,7 +5340,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5351,14 +5357,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>73</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5374,7 +5380,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5384,14 +5390,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>86</v>
+        <v>314</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5400,14 +5406,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5417,14 +5423,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>333</v>
+        <v>86</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5433,14 +5439,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5450,14 +5456,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5466,14 +5472,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>207</v>
+        <v>336</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5483,14 +5489,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5499,14 +5505,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5516,11 +5522,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5539,7 +5545,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5549,14 +5555,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>319</v>
+        <v>228</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5572,7 +5578,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5582,14 +5588,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5615,14 +5621,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>226</v>
+        <v>321</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>153</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5638,7 +5644,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5648,14 +5654,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5671,7 +5677,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>346</v>
+        <v>95</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5681,14 +5687,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5697,14 +5703,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5714,14 +5720,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>349</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5730,14 +5736,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5747,14 +5753,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>351</v>
+        <v>156</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5763,14 +5769,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5780,49 +5786,82 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>152</v>
+        <v>352</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>153</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7253.0249999999996</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>353</v>
       </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
         <v>354</v>
       </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>23</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>152</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>7334.0249999999996</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
         <v>355</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>356</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>357</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6451,10 +6490,15 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -1076,7 +1076,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 11:50 PM</t>
+    <t>Monday, 29 September, 2025 11:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-29_00-00.xlsx
+++ b/DaySale_2025-09-29_00-00.xlsx
@@ -1076,7 +1076,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Monday, 29 September, 2025 11:56 PM</t>
+    <t>Monday, 29 September, 2025 11:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
